--- a/assets/Zufriedenheit-cleaned.xlsx
+++ b/assets/Zufriedenheit-cleaned.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sha_r\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9624b3ea8065e7b/Dokumente/GitHub/Dashboard_Design/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4F94DE-CC8E-4B21-8CC9-CBA0062AA828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EABC2878-4134-421C-8096-C3030AEA7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{807A4729-B974-43DF-9F85-699DD16C51D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,45 +37,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>das jetzige Leben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">die eigene finanzielle Situation </t>
-  </si>
-  <si>
-    <t>das Alleinleben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">die persönlichen Beziehungen </t>
-  </si>
-  <si>
-    <t>die Wohnsituation</t>
-  </si>
-  <si>
-    <t>das Arbeitsklima</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="16">
   <si>
     <t>Jahr</t>
   </si>
   <si>
-    <t>das Zusammen-leben</t>
+    <t>Geschlecht</t>
   </si>
   <si>
-    <t>den eigenen Gesundheits-zustand</t>
+    <t>Alle</t>
   </si>
   <si>
-    <t>die Arbeitsbeding-ungen</t>
+    <t>Frauen</t>
+  </si>
+  <si>
+    <t>Männer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frauen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Männer </t>
+  </si>
+  <si>
+    <t>Allgemein</t>
+  </si>
+  <si>
+    <t>Finanzen</t>
+  </si>
+  <si>
+    <t>Alleinleben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zusammenleben</t>
+  </si>
+  <si>
+    <t>Beziehungen</t>
+  </si>
+  <si>
+    <t>Gesundheit</t>
+  </si>
+  <si>
+    <t>Wohnsituation</t>
+  </si>
+  <si>
+    <t>Arbeitsbedingungen</t>
+  </si>
+  <si>
+    <t>Arbeitsklima</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,###,##0.0__;\-#,###,##0.0__;@__\ "/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -100,12 +118,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -116,8 +128,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -167,14 +190,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -279,11 +315,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$1</c:f>
+              <c:f>Tabelle1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>das jetzige Leben  </c:v>
+                  <c:v>Finanzen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -302,56 +338,146 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$17</c:f>
+              <c:f>Tabelle1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2021</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2014</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2013</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2012</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="34">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="40">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="43">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>2007</c:v>
                 </c:pt>
               </c:numCache>
@@ -359,56 +485,146 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$17</c:f>
+              <c:f>Tabelle1!$C$2:$C$47</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>7.9759560665502471</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8.0247952774609654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9261466240033416</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.8946952789636073</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>7.9396445148999311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.848797877244797</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.0787553418360396</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>8.1255583029187282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0308741968984361</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>8.0257415480349117</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>8.0910719592043563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9589813896583701</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7.9633662729724879</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>7.9889434047842212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9371798927798514</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7.9618459824964383</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>7.9740634102697827</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9493107060221888</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>7.9530000000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
+                  <c:v>7.9859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>7.9489999999999998</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
+                  <c:v>7.9880000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>8.0180000000000007</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>8.0790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>8.0470000000000006</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
+                  <c:v>8.0939999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.9989999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>8.2010000000000005</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
+                  <c:v>8.2219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.1790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>8.1509999999999998</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="34">
+                  <c:v>8.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.1140000000000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>8.1519999999999992</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="37">
+                  <c:v>8.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1170000000000009</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>8.1430000000000007</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="40">
+                  <c:v>8.1880000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.0950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>8.1280000000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="43">
+                  <c:v>8.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>8.2200000000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -615,7 +831,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -775,11 +991,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$1</c:f>
+              <c:f>Tabelle1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>die eigene finanzielle Situation   </c:v>
+                  <c:v>Alleinleben</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,56 +1024,146 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$17</c:f>
+              <c:f>Tabelle1!$C$2:$C$47</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>7.9759560665502471</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8.0247952774609654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9261466240033416</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.8946952789636073</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>7.9396445148999311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.848797877244797</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.0787553418360396</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>8.1255583029187282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0308741968984361</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>8.0257415480349117</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>8.0910719592043563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9589813896583701</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7.9633662729724879</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>7.9889434047842212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9371798927798514</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7.9618459824964383</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>7.9740634102697827</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9493107060221888</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>7.9530000000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
+                  <c:v>7.9859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>7.9489999999999998</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
+                  <c:v>7.9880000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>8.0180000000000007</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>8.0790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>8.0470000000000006</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
+                  <c:v>8.0939999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.9989999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>8.2010000000000005</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
+                  <c:v>8.2219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.1790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>8.1509999999999998</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="34">
+                  <c:v>8.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.1140000000000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>8.1519999999999992</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="37">
+                  <c:v>8.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1170000000000009</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>8.1430000000000007</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="40">
+                  <c:v>8.1880000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.0950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>8.1280000000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="43">
+                  <c:v>8.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>8.2200000000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -865,56 +1171,146 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$17</c:f>
+              <c:f>Tabelle1!$D$2:$D$47</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>7.507666567542099</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7.485737731189519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.529972504917156</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.5573855756616499</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>7.513889611158846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6017218340770372</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7.4053481852059075</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>7.3813854246057922</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4297642551763383</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7.2840529999813945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>7.3026099328385268</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2651492186157389</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7.247689248750885</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>7.2811678670367774</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2134723173239053</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7.211111622829522</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>7.2045129648194353</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2178580228417886</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>7.22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
+                  <c:v>7.2409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>7.319</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
+                  <c:v>7.3280000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>7.3179999999999996</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>7.3390000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>7.3680000000000003</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
+                  <c:v>7.367</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.3689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>7.1929999999999996</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
+                  <c:v>7.2160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.1689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>7.2009999999999996</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="34">
+                  <c:v>7.2469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.1529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>7.2279999999999998</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="37">
+                  <c:v>7.2859999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.1689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>7.1120000000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="40">
+                  <c:v>7.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.0439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>7.1719999999999997</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="43">
+                  <c:v>7.2350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.1059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>7.0990000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1014,7 +1410,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1131,7 +1527,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2333,15 +2729,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>752134</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>195942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>56134</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>116388</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2369,15 +2765,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>88785</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>189139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>154785</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>109585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2404,6 +2800,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2723,562 +3123,4859 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5028D925-7BF8-434F-99D4-BBA3B585A086}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="10.73046875" style="1" customWidth="1"/>
-    <col min="6" max="10" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="16.265625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="30.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="30.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="C2" s="4">
+        <v>7.9759560665502471</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7.507666567542099</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7.7001404695190363</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8.9379323588993387</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.6142002878013884</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7.9406867884363646</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8.4191410655101997</v>
+      </c>
+      <c r="J2" s="4">
+        <v>7.9569830332541782</v>
+      </c>
+      <c r="K2" s="4">
+        <v>8.6076073334145544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="C3" s="4">
+        <v>8.0247952774609654</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.485737731189519</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.0627669218249878</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8.8696270062273239</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.7200293622358398</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7.947223522464494</v>
+      </c>
+      <c r="I3" s="4">
+        <v>8.5374775551046227</v>
+      </c>
+      <c r="J3" s="4">
+        <v>7.9478910836882486</v>
+      </c>
+      <c r="K3" s="4">
+        <v>8.6753600220548268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="5">
-        <v>7.9759560665502471</v>
-      </c>
-      <c r="C2" s="5">
-        <v>7.507666567542099</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7.7001404695190363</v>
-      </c>
-      <c r="E2" s="5">
-        <v>8.9379323588993387</v>
-      </c>
-      <c r="F2" s="5">
-        <v>8.6142002878013884</v>
-      </c>
-      <c r="G2" s="5">
-        <v>7.9406867884363646</v>
-      </c>
-      <c r="H2" s="5">
-        <v>8.4191410655101997</v>
-      </c>
-      <c r="I2" s="5">
-        <v>7.9569830332541782</v>
-      </c>
-      <c r="J2" s="5">
-        <v>8.6076073334145544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
+      <c r="C4" s="4">
+        <v>7.9261466240033416</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.529972504917156</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.2850459438963506</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9.0053767571892962</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8.5061747148869635</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7.9340173236749294</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8.298466903639202</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7.9650643300248136</v>
+      </c>
+      <c r="K4" s="4">
+        <v>8.548485130461291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>2021</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
         <v>7.8946952789636073</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D5" s="4">
         <v>7.5573855756616499</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E5" s="4">
         <v>7.6210356436064659</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F5" s="4">
         <v>8.9492920966382652</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G5" s="4">
         <v>8.6474735296235945</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H5" s="4">
         <v>8.0624505089627991</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I5" s="4">
         <v>8.4354117263128874</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J5" s="4">
         <v>8.0739239532240834</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K5" s="4">
         <v>8.6428157796608147</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.9396445148999311</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.513889611158846</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.9967615389257336</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8.8720399252768924</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8.7671737628422903</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8.0636547288957807</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8.5492174753134815</v>
+      </c>
+      <c r="J6" s="4">
+        <v>8.0731855814080085</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8.7122869005466317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.848797877244797</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.6017218340770372</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.1736460880866089</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9.0251099791432363</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.5250747835178657</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8.0612213432162871</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8.3192178112408008</v>
+      </c>
+      <c r="J7" s="4">
+        <v>8.0745776094436508</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8.5822416891669189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>2020</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
         <v>8.0787553418360396</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D8" s="4">
         <v>7.4053481852059075</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E8" s="4">
         <v>7.7426531004035981</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F8" s="4">
         <v>8.8779645580000395</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G8" s="4">
         <v>8.6864949158203295</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H8" s="4">
         <v>8.1171567597156393</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I8" s="4">
         <v>8.4506053249347683</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J8" s="4">
         <v>8.1001512178752009</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K8" s="4">
         <v>8.6152773774560849</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8.1255583029187282</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7.3813854246057922</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8.049731411194065</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8.7644189574527314</v>
+      </c>
+      <c r="G9" s="4">
+        <v>8.7862352738607914</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8.0966565857784545</v>
+      </c>
+      <c r="I9" s="4">
+        <v>8.5302707713629324</v>
+      </c>
+      <c r="J9" s="4">
+        <v>8.122382639771395</v>
+      </c>
+      <c r="K9" s="4">
+        <v>8.6907696022127663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8.0308741968984361</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.4297642551763383</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7.376542994147127</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8.9893086081678888</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8.5845994660496121</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8.1381106376155667</v>
+      </c>
+      <c r="I10" s="4">
+        <v>8.3692461102030133</v>
+      </c>
+      <c r="J10" s="4">
+        <v>8.0798750176483676</v>
+      </c>
+      <c r="K10" s="4">
+        <v>8.5484278245385088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
         <v>2019</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
         <v>8.0257415480349117</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D11" s="4">
         <v>7.2840529999813945</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E11" s="4">
         <v>7.6404529580442162</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F11" s="4">
         <v>8.9120344579853299</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G11" s="4">
         <v>8.6484894860156381</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H11" s="4">
         <v>7.9974391505817639</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I11" s="4">
         <v>8.414873698601486</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J11" s="4">
         <v>8.003754995727336</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K11" s="4">
         <v>8.6277116569574019</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8.0910719592043563</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7.3026099328385268</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.9729876652913916</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8.8108771418817575</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8.7551092952227076</v>
+      </c>
+      <c r="H12" s="4">
+        <v>7.9667513387756186</v>
+      </c>
+      <c r="I12" s="4">
+        <v>8.5163083482791198</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8.0506120376388317</v>
+      </c>
+      <c r="K12" s="4">
+        <v>8.6933760247535563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.9589813896583701</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.2651492186157389</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.2106572896301824</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9.0089934187986422</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8.5395998228839751</v>
+      </c>
+      <c r="H13" s="4">
+        <v>8.0288124984848874</v>
+      </c>
+      <c r="I13" s="4">
+        <v>8.3110180791487789</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7.9621434649017138</v>
+      </c>
+      <c r="K13" s="4">
+        <v>8.5695326991443626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>2018</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
         <v>7.9633662729724879</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D14" s="4">
         <v>7.247689248750885</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E14" s="4">
         <v>7.5122660575353501</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F14" s="4">
         <v>8.9331301804424452</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G14" s="4">
         <v>8.6240742564157031</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H14" s="4">
         <v>7.9869847355404611</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I14" s="4">
         <v>8.3709529148163142</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J14" s="4">
         <v>8.0682200099605108</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K14" s="4">
         <v>8.5603783782306735</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.9889434047842212</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7.2811678670367774</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7.9088674570070321</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8.8629074105287771</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8.6932890225281785</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7.9352475648183116</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8.4337028947680075</v>
+      </c>
+      <c r="J15" s="4">
+        <v>8.0736884143927821</v>
+      </c>
+      <c r="K15" s="4">
+        <v>8.6196889302334316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.9371798927798514</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7.2134723173239053</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.0590338735637612</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9.002686593729079</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8.5531817957102003</v>
+      </c>
+      <c r="H16" s="4">
+        <v>8.0399218060964817</v>
+      </c>
+      <c r="I16" s="4">
+        <v>8.306721599156095</v>
+      </c>
+      <c r="J16" s="4">
+        <v>8.0633318280382884</v>
+      </c>
+      <c r="K16" s="4">
+        <v>8.508425021686751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
         <v>2017</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
         <v>7.9618459824964383</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D17" s="4">
         <v>7.211111622829522</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E17" s="4">
         <v>7.4787540974021054</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F17" s="4">
         <v>8.9098276952251272</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G17" s="4">
         <v>8.6365075438912786</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H17" s="4">
         <v>7.9919560331231612</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I17" s="4">
         <v>8.3454968752990251</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J17" s="4">
         <v>7.9807473575199692</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K17" s="4">
         <v>8.542936548267491</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7.9740634102697827</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7.2045129648194353</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.8299197963044671</v>
+      </c>
+      <c r="F18" s="4">
+        <v>8.8165472907098117</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8.7344046430802322</v>
+      </c>
+      <c r="H18" s="4">
+        <v>7.9182864714284387</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8.4278933842208499</v>
+      </c>
+      <c r="J18" s="4">
+        <v>8.0007505173137794</v>
+      </c>
+      <c r="K18" s="4">
+        <v>8.5821749197966568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7.9493107060221888</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.2178580228417886</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.0683443600860647</v>
+      </c>
+      <c r="F19" s="4">
+        <v>9.0022782723851176</v>
+      </c>
+      <c r="G19" s="4">
+        <v>8.5361029649050018</v>
+      </c>
+      <c r="H19" s="4">
+        <v>8.0674564418963381</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8.2609855751748658</v>
+      </c>
+      <c r="J19" s="4">
+        <v>7.9631277511110019</v>
+      </c>
+      <c r="K19" s="4">
+        <v>8.509028701368905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
         <v>2016</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
         <v>7.9530000000000003</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D20" s="4">
         <v>7.22</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E20" s="4">
         <v>7.4429999999999996</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F20" s="4">
         <v>8.9420000000000002</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G20" s="4">
         <v>8.5500000000000007</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H20" s="4">
         <v>7.9390000000000001</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I20" s="4">
         <v>8.3290000000000006</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J20" s="4">
         <v>7.9809999999999999</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K20" s="4">
         <v>8.5329999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7.9859999999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7.2409999999999997</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7.8259999999999996</v>
+      </c>
+      <c r="F21" s="4">
+        <v>8.8350000000000009</v>
+      </c>
+      <c r="G21" s="4">
+        <v>8.6340000000000003</v>
+      </c>
+      <c r="H21" s="4">
+        <v>7.8849999999999998</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8.42</v>
+      </c>
+      <c r="J21" s="4">
+        <v>7.9939999999999998</v>
+      </c>
+      <c r="K21" s="4">
+        <v>8.5459999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7.9189999999999996</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7.1989999999999998</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7.0019999999999998</v>
+      </c>
+      <c r="F22" s="4">
+        <v>9.0489999999999995</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="H22" s="4">
+        <v>7.9950000000000001</v>
+      </c>
+      <c r="I22" s="4">
+        <v>8.2349999999999994</v>
+      </c>
+      <c r="J22" s="4">
+        <v>7.97</v>
+      </c>
+      <c r="K22" s="4">
+        <v>8.5229999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
         <v>2015</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
         <v>7.9489999999999998</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D23" s="4">
         <v>7.319</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E23" s="4">
         <v>7.2969999999999997</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F23" s="4">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G23" s="4">
         <v>8.5370000000000008</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H23" s="4">
         <v>8.01</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I23" s="4">
         <v>8.3160000000000007</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J23" s="4">
         <v>8.0169999999999995</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K23" s="4">
         <v>8.5489999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7.3280000000000003</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7.5869999999999997</v>
+      </c>
+      <c r="F24" s="4">
+        <v>8.8049999999999997</v>
+      </c>
+      <c r="G24" s="4">
+        <v>8.6519999999999992</v>
+      </c>
+      <c r="H24" s="4">
+        <v>7.9379999999999997</v>
+      </c>
+      <c r="I24" s="4">
+        <v>8.4079999999999995</v>
+      </c>
+      <c r="J24" s="4">
+        <v>8.0239999999999991</v>
+      </c>
+      <c r="K24" s="4">
+        <v>8.5570000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.9089999999999998</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7.31</v>
+      </c>
+      <c r="E25" s="4">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="F25" s="4">
+        <v>8.9540000000000006</v>
+      </c>
+      <c r="G25" s="4">
+        <v>8.4190000000000005</v>
+      </c>
+      <c r="H25" s="4">
+        <v>8.0850000000000009</v>
+      </c>
+      <c r="I25" s="4">
+        <v>8.2210000000000001</v>
+      </c>
+      <c r="J25" s="4">
+        <v>8.0120000000000005</v>
+      </c>
+      <c r="K25" s="4">
+        <v>8.5419999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
         <v>2014</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
         <v>8.0180000000000007</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D26" s="4">
         <v>7.3179999999999996</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E26" s="4">
         <v>7.3369999999999997</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F26" s="4">
         <v>8.8919999999999995</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G26" s="4">
         <v>8.6579999999999995</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H26" s="4">
         <v>7.9459999999999997</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I26" s="4">
         <v>8.3249999999999993</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J26" s="4">
         <v>7.9429999999999996</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K26" s="4">
         <v>8.5109999999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>8.0790000000000006</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7.3390000000000004</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7.8390000000000004</v>
+      </c>
+      <c r="F27" s="4">
+        <v>8.827</v>
+      </c>
+      <c r="G27" s="4">
+        <v>8.74</v>
+      </c>
+      <c r="H27" s="4">
+        <v>7.88</v>
+      </c>
+      <c r="I27" s="4">
+        <v>8.4149999999999991</v>
+      </c>
+      <c r="J27" s="4">
+        <v>7.931</v>
+      </c>
+      <c r="K27" s="4">
+        <v>8.5280000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7.9539999999999997</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7.2960000000000003</v>
+      </c>
+      <c r="E28" s="4">
+        <v>6.7290000000000001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8.9559999999999995</v>
+      </c>
+      <c r="G28" s="4">
+        <v>8.5730000000000004</v>
+      </c>
+      <c r="H28" s="4">
+        <v>8.0139999999999993</v>
+      </c>
+      <c r="I28" s="4">
+        <v>8.2319999999999993</v>
+      </c>
+      <c r="J28" s="4">
+        <v>7.9530000000000003</v>
+      </c>
+      <c r="K28" s="4">
+        <v>8.4969999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
         <v>2013</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
         <v>8.0470000000000006</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D29" s="4">
         <v>7.3680000000000003</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E29" s="4">
         <v>7.2939999999999996</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F29" s="4">
         <v>8.8219999999999992</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G29" s="4">
         <v>8.6760000000000002</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H29" s="4">
         <v>8.048</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I29" s="4">
         <v>8.359</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J29" s="4">
         <v>8.0649999999999995</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K29" s="4">
         <v>8.5280000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>8.0939999999999994</v>
+      </c>
+      <c r="D30" s="4">
+        <v>7.367</v>
+      </c>
+      <c r="E30" s="4">
+        <v>7.6790000000000003</v>
+      </c>
+      <c r="F30" s="4">
+        <v>8.73</v>
+      </c>
+      <c r="G30" s="4">
+        <v>8.7240000000000002</v>
+      </c>
+      <c r="H30" s="4">
+        <v>7.9980000000000002</v>
+      </c>
+      <c r="I30" s="4">
+        <v>8.4239999999999995</v>
+      </c>
+      <c r="J30" s="4">
+        <v>8.0909999999999993</v>
+      </c>
+      <c r="K30" s="4">
+        <v>8.5820000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7.3689999999999998</v>
+      </c>
+      <c r="E31" s="4">
+        <v>6.8159999999999998</v>
+      </c>
+      <c r="F31" s="4">
+        <v>8.9139999999999997</v>
+      </c>
+      <c r="G31" s="4">
+        <v>8.6270000000000007</v>
+      </c>
+      <c r="H31" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>8.2919999999999998</v>
+      </c>
+      <c r="J31" s="4">
+        <v>8.0429999999999993</v>
+      </c>
+      <c r="K31" s="4">
+        <v>8.4819999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
         <v>2012</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
         <v>8.2010000000000005</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D32" s="4">
         <v>7.1929999999999996</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E32" s="4">
         <v>7.5410000000000004</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F32" s="4">
         <v>8.8040000000000003</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G32" s="4">
         <v>8.6739999999999995</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H32" s="4">
         <v>8.0660000000000007</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I32" s="4">
         <v>8.5220000000000002</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J32" s="4">
         <v>8.0329999999999995</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K32" s="4">
         <v>8.5950000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>8.2219999999999995</v>
+      </c>
+      <c r="D33" s="4">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="E33" s="4">
+        <v>7.8949999999999996</v>
+      </c>
+      <c r="F33" s="4">
+        <v>8.7579999999999991</v>
+      </c>
+      <c r="G33" s="4">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="H33" s="4">
+        <v>8.0210000000000008</v>
+      </c>
+      <c r="I33" s="4">
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="J33" s="4">
+        <v>8.016</v>
+      </c>
+      <c r="K33" s="4">
+        <v>8.6159999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4">
+        <v>8.1790000000000003</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7.1689999999999996</v>
+      </c>
+      <c r="E34" s="4">
+        <v>7.0759999999999996</v>
+      </c>
+      <c r="F34" s="4">
+        <v>8.8490000000000002</v>
+      </c>
+      <c r="G34" s="4">
+        <v>8.6440000000000001</v>
+      </c>
+      <c r="H34" s="4">
+        <v>8.1129999999999995</v>
+      </c>
+      <c r="I34" s="4">
+        <v>8.4770000000000003</v>
+      </c>
+      <c r="J34" s="4">
+        <v>8.048</v>
+      </c>
+      <c r="K34" s="4">
+        <v>8.577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
         <v>2011</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
         <v>8.1509999999999998</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D35" s="4">
         <v>7.2009999999999996</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E35" s="4">
         <v>7.6609999999999996</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F35" s="4">
         <v>8.7720000000000002</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G35" s="4">
         <v>8.6630000000000003</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H35" s="4">
         <v>8.0229999999999997</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I35" s="4">
         <v>8.5299999999999994</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J35" s="4">
         <v>7.9820000000000002</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K35" s="4">
         <v>8.5909999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7.2469999999999999</v>
+      </c>
+      <c r="E36" s="4">
+        <v>7.9569999999999999</v>
+      </c>
+      <c r="F36" s="4">
+        <v>8.7370000000000001</v>
+      </c>
+      <c r="G36" s="4">
+        <v>8.6980000000000004</v>
+      </c>
+      <c r="H36" s="4">
+        <v>7.98</v>
+      </c>
+      <c r="I36" s="4">
+        <v>8.5830000000000002</v>
+      </c>
+      <c r="J36" s="4">
+        <v>7.9930000000000003</v>
+      </c>
+      <c r="K36" s="4">
+        <v>8.6140000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4">
+        <v>8.1140000000000008</v>
+      </c>
+      <c r="D37" s="4">
+        <v>7.1529999999999996</v>
+      </c>
+      <c r="E37" s="4">
+        <v>7.2469999999999999</v>
+      </c>
+      <c r="F37" s="4">
+        <v>8.8059999999999992</v>
+      </c>
+      <c r="G37" s="4">
+        <v>8.6259999999999994</v>
+      </c>
+      <c r="H37" s="4">
+        <v>8.0670000000000002</v>
+      </c>
+      <c r="I37" s="4">
+        <v>8.4760000000000009</v>
+      </c>
+      <c r="J37" s="4">
+        <v>7.9720000000000004</v>
+      </c>
+      <c r="K37" s="4">
+        <v>8.5739999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
         <v>2010</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
         <v>8.1519999999999992</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D38" s="4">
         <v>7.2279999999999998</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E38" s="4">
         <v>7.5890000000000004</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F38" s="4">
         <v>8.7609999999999992</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G38" s="4">
         <v>8.6340000000000003</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H38" s="4">
         <v>8.0299999999999994</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I38" s="4">
         <v>8.5269999999999992</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J38" s="4">
         <v>7.9630000000000001</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K38" s="4">
         <v>8.5879999999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="D39" s="4">
+        <v>7.2859999999999996</v>
+      </c>
+      <c r="E39" s="4">
+        <v>7.907</v>
+      </c>
+      <c r="F39" s="4">
+        <v>8.7140000000000004</v>
+      </c>
+      <c r="G39" s="4">
+        <v>8.6739999999999995</v>
+      </c>
+      <c r="H39" s="4">
+        <v>7.9669999999999996</v>
+      </c>
+      <c r="I39" s="4">
+        <v>8.5890000000000004</v>
+      </c>
+      <c r="J39" s="4">
+        <v>7.9509999999999996</v>
+      </c>
+      <c r="K39" s="4">
+        <v>8.5809999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4">
+        <v>8.1170000000000009</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7.1689999999999996</v>
+      </c>
+      <c r="E40" s="4">
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="F40" s="4">
+        <v>8.8070000000000004</v>
+      </c>
+      <c r="G40" s="4">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="H40" s="4">
+        <v>8.0960000000000001</v>
+      </c>
+      <c r="I40" s="4">
+        <v>8.4619999999999997</v>
+      </c>
+      <c r="J40" s="4">
+        <v>7.9729999999999999</v>
+      </c>
+      <c r="K40" s="4">
+        <v>8.5939999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
         <v>2009</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4">
         <v>8.1430000000000007</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D41" s="4">
         <v>7.1120000000000001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E41" s="4">
         <v>7.5439999999999996</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F41" s="4">
         <v>8.7590000000000003</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G41" s="4">
         <v>8.6310000000000002</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H41" s="4">
         <v>8.01</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I41" s="4">
         <v>8.5120000000000005</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J41" s="4">
         <v>7.9779999999999998</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K41" s="4">
         <v>8.5960000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>8.1880000000000006</v>
+      </c>
+      <c r="D42" s="4">
+        <v>7.1779999999999999</v>
+      </c>
+      <c r="E42" s="4">
+        <v>7.8339999999999996</v>
+      </c>
+      <c r="F42" s="4">
+        <v>8.7270000000000003</v>
+      </c>
+      <c r="G42" s="4">
+        <v>8.6660000000000004</v>
+      </c>
+      <c r="H42" s="4">
+        <v>7.9509999999999996</v>
+      </c>
+      <c r="I42" s="4">
+        <v>8.5820000000000007</v>
+      </c>
+      <c r="J42" s="4">
+        <v>7.9749999999999996</v>
+      </c>
+      <c r="K42" s="4">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>8.0950000000000006</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7.0439999999999996</v>
+      </c>
+      <c r="E43" s="4">
+        <v>7.1210000000000004</v>
+      </c>
+      <c r="F43" s="4">
+        <v>8.7910000000000004</v>
+      </c>
+      <c r="G43" s="4">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="H43" s="4">
+        <v>8.07</v>
+      </c>
+      <c r="I43" s="4">
+        <v>8.44</v>
+      </c>
+      <c r="J43" s="4">
+        <v>7.9809999999999999</v>
+      </c>
+      <c r="K43" s="4">
+        <v>8.6080000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
         <v>2008</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
         <v>8.1280000000000001</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D44" s="4">
         <v>7.1719999999999997</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E44" s="4">
         <v>7.4619999999999997</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F44" s="4">
         <v>8.7959999999999994</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G44" s="4">
         <v>8.64</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H44" s="4">
         <v>8.0190000000000001</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I44" s="4">
         <v>8.4830000000000005</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J44" s="4">
         <v>8.0449999999999999</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K44" s="4">
         <v>8.6769999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4">
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="D45" s="4">
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="E45" s="4">
+        <v>7.7960000000000003</v>
+      </c>
+      <c r="F45" s="4">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="G45" s="4">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="H45" s="4">
+        <v>7.9749999999999996</v>
+      </c>
+      <c r="I45" s="4">
+        <v>8.5530000000000008</v>
+      </c>
+      <c r="J45" s="4">
+        <v>8.0730000000000004</v>
+      </c>
+      <c r="K45" s="4">
+        <v>8.6820000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="D46" s="4">
+        <v>7.1059999999999999</v>
+      </c>
+      <c r="E46" s="4">
+        <v>6.9859999999999998</v>
+      </c>
+      <c r="F46" s="4">
+        <v>8.8379999999999992</v>
+      </c>
+      <c r="G46" s="4">
+        <v>8.6120000000000001</v>
+      </c>
+      <c r="H46" s="4">
+        <v>8.0649999999999995</v>
+      </c>
+      <c r="I46" s="4">
+        <v>8.4109999999999996</v>
+      </c>
+      <c r="J46" s="4">
+        <v>8.0210000000000008</v>
+      </c>
+      <c r="K46" s="4">
+        <v>8.673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" s="3">
         <v>2007</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4">
         <v>8.2200000000000006</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D47" s="4">
         <v>7.0990000000000002</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E47" s="4">
         <v>7.4279999999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F47" s="4">
         <v>8.8889999999999993</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G47" s="4">
         <v>8.7159999999999993</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H47" s="4">
         <v>8.1080000000000005</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
         <v>8.0690000000000008</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K47" s="4">
         <v>8.7240000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="4">
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="D48" s="4">
+        <v>7.1820000000000004</v>
+      </c>
+      <c r="E48" s="4">
+        <v>7.6959999999999997</v>
+      </c>
+      <c r="F48" s="4">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G48" s="4">
+        <v>8.76</v>
+      </c>
+      <c r="H48" s="4">
+        <v>8.0510000000000002</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="K48" s="4">
+        <v>8.7929999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4">
+        <v>8.1639999999999997</v>
+      </c>
+      <c r="D49" s="4">
+        <v>7.0119999999999996</v>
+      </c>
+      <c r="E49" s="4">
+        <v>7.0229999999999997</v>
+      </c>
+      <c r="F49" s="4">
+        <v>8.8979999999999997</v>
+      </c>
+      <c r="G49" s="4">
+        <v>8.6690000000000005</v>
+      </c>
+      <c r="H49" s="4">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4">
+        <v>7.9710000000000001</v>
+      </c>
+      <c r="K49" s="4">
+        <v>8.6679999999999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B05E8EE-470D-4E8B-BACB-59AFBB248B16}">
+  <dimension ref="A1:CA32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:78" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5">
+        <v>8.0247952774609654</v>
+      </c>
+      <c r="C1" s="5">
+        <v>7.485737731189519</v>
+      </c>
+      <c r="D1" s="5">
+        <v>8.0627669218249878</v>
+      </c>
+      <c r="E1" s="5">
+        <v>8.8696270062273239</v>
+      </c>
+      <c r="F1" s="5">
+        <v>8.7200293622358398</v>
+      </c>
+      <c r="G1" s="5">
+        <v>7.947223522464494</v>
+      </c>
+      <c r="H1" s="5">
+        <v>8.5374775551046227</v>
+      </c>
+      <c r="I1" s="5">
+        <v>7.9478910836882486</v>
+      </c>
+      <c r="J1" s="5">
+        <v>8.6753600220548268</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+    </row>
+    <row r="2" spans="1:78" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.9261466240033416</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7.529972504917156</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7.2850459438963506</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9.0053767571892962</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8.5061747148869635</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7.9340173236749294</v>
+      </c>
+      <c r="H2" s="5">
+        <v>8.298466903639202</v>
+      </c>
+      <c r="I2" s="5">
+        <v>7.9650643300248136</v>
+      </c>
+      <c r="J2" s="5">
+        <v>8.548485130461291</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+    </row>
+    <row r="3" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7.9396445148999311</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.513889611158846</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.9967615389257336</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8.8720399252768924</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8.7671737628422903</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8.0636547288957807</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8.5492174753134815</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8.0731855814080085</v>
+      </c>
+      <c r="J3" s="5">
+        <v>8.7122869005466317</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+    </row>
+    <row r="4" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.848797877244797</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7.6017218340770372</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7.1736460880866089</v>
+      </c>
+      <c r="E4" s="5">
+        <v>9.0251099791432363</v>
+      </c>
+      <c r="F4" s="5">
+        <v>8.5250747835178657</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8.0612213432162871</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8.3192178112408008</v>
+      </c>
+      <c r="I4" s="5">
+        <v>8.0745776094436508</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8.5822416891669189</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
+    </row>
+    <row r="5" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8.1255583029187282</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7.3813854246057922</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.049731411194065</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8.7644189574527314</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8.7862352738607914</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8.0966565857784545</v>
+      </c>
+      <c r="H5" s="5">
+        <v>8.5302707713629324</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8.122382639771395</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8.6907696022127663</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+    </row>
+    <row r="6" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8.0308741968984361</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7.4297642551763383</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7.376542994147127</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8.9893086081678888</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8.5845994660496121</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8.1381106376155667</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8.3692461102030133</v>
+      </c>
+      <c r="I6" s="5">
+        <v>8.0798750176483676</v>
+      </c>
+      <c r="J6" s="5">
+        <v>8.5484278245385088</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+    </row>
+    <row r="7" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14">
+        <v>8.0910719592043563</v>
+      </c>
+      <c r="C7" s="14">
+        <v>7.3026099328385268</v>
+      </c>
+      <c r="D7" s="14">
+        <v>7.9729876652913916</v>
+      </c>
+      <c r="E7" s="14">
+        <v>8.8108771418817575</v>
+      </c>
+      <c r="F7" s="14">
+        <v>8.7551092952227076</v>
+      </c>
+      <c r="G7" s="14">
+        <v>7.9667513387756186</v>
+      </c>
+      <c r="H7" s="14">
+        <v>8.5163083482791198</v>
+      </c>
+      <c r="I7" s="14">
+        <v>8.0506120376388317</v>
+      </c>
+      <c r="J7" s="14">
+        <v>8.6933760247535563</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="12"/>
+      <c r="BT7" s="12"/>
+      <c r="BU7" s="12"/>
+      <c r="BV7" s="12"/>
+      <c r="BW7" s="12"/>
+      <c r="BX7" s="12"/>
+      <c r="BY7" s="12"/>
+    </row>
+    <row r="8" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>7.9589813896583701</v>
+      </c>
+      <c r="C8" s="14">
+        <v>7.2651492186157389</v>
+      </c>
+      <c r="D8" s="14">
+        <v>7.2106572896301824</v>
+      </c>
+      <c r="E8" s="14">
+        <v>9.0089934187986422</v>
+      </c>
+      <c r="F8" s="14">
+        <v>8.5395998228839751</v>
+      </c>
+      <c r="G8" s="14">
+        <v>8.0288124984848874</v>
+      </c>
+      <c r="H8" s="14">
+        <v>8.3110180791487789</v>
+      </c>
+      <c r="I8" s="14">
+        <v>7.9621434649017138</v>
+      </c>
+      <c r="J8" s="14">
+        <v>8.5695326991443626</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="12"/>
+      <c r="BS8" s="12"/>
+      <c r="BT8" s="12"/>
+      <c r="BU8" s="12"/>
+      <c r="BV8" s="12"/>
+      <c r="BW8" s="12"/>
+      <c r="BX8" s="12"/>
+      <c r="BY8" s="12"/>
+    </row>
+    <row r="9" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14">
+        <v>7.9889434047842212</v>
+      </c>
+      <c r="C9" s="14">
+        <v>7.2811678670367774</v>
+      </c>
+      <c r="D9" s="14">
+        <v>7.9088674570070321</v>
+      </c>
+      <c r="E9" s="14">
+        <v>8.8629074105287771</v>
+      </c>
+      <c r="F9" s="14">
+        <v>8.6932890225281785</v>
+      </c>
+      <c r="G9" s="14">
+        <v>7.9352475648183116</v>
+      </c>
+      <c r="H9" s="14">
+        <v>8.4337028947680075</v>
+      </c>
+      <c r="I9" s="14">
+        <v>8.0736884143927821</v>
+      </c>
+      <c r="J9" s="14">
+        <v>8.6196889302334316</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
+      <c r="BR9" s="12"/>
+      <c r="BS9" s="12"/>
+      <c r="BT9" s="12"/>
+      <c r="BU9" s="12"/>
+      <c r="BV9" s="12"/>
+      <c r="BW9" s="12"/>
+      <c r="BX9" s="12"/>
+      <c r="BY9" s="12"/>
+      <c r="BZ9" s="12"/>
+    </row>
+    <row r="10" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14">
+        <v>7.9371798927798514</v>
+      </c>
+      <c r="C10" s="14">
+        <v>7.2134723173239053</v>
+      </c>
+      <c r="D10" s="14">
+        <v>7.0590338735637612</v>
+      </c>
+      <c r="E10" s="14">
+        <v>9.002686593729079</v>
+      </c>
+      <c r="F10" s="14">
+        <v>8.5531817957102003</v>
+      </c>
+      <c r="G10" s="14">
+        <v>8.0399218060964817</v>
+      </c>
+      <c r="H10" s="14">
+        <v>8.306721599156095</v>
+      </c>
+      <c r="I10" s="14">
+        <v>8.0633318280382884</v>
+      </c>
+      <c r="J10" s="14">
+        <v>8.508425021686751</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+      <c r="BH10" s="12"/>
+      <c r="BI10" s="12"/>
+      <c r="BJ10" s="12"/>
+      <c r="BK10" s="12"/>
+      <c r="BL10" s="12"/>
+      <c r="BM10" s="12"/>
+      <c r="BN10" s="12"/>
+      <c r="BO10" s="12"/>
+      <c r="BP10" s="12"/>
+      <c r="BQ10" s="12"/>
+      <c r="BR10" s="12"/>
+      <c r="BS10" s="12"/>
+      <c r="BT10" s="12"/>
+      <c r="BU10" s="12"/>
+      <c r="BV10" s="12"/>
+      <c r="BW10" s="12"/>
+      <c r="BX10" s="12"/>
+      <c r="BY10" s="12"/>
+      <c r="BZ10" s="12"/>
+    </row>
+    <row r="11" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14">
+        <v>7.9740634102697827</v>
+      </c>
+      <c r="C11" s="14">
+        <v>7.2045129648194353</v>
+      </c>
+      <c r="D11" s="14">
+        <v>7.8299197963044671</v>
+      </c>
+      <c r="E11" s="14">
+        <v>8.8165472907098117</v>
+      </c>
+      <c r="F11" s="14">
+        <v>8.7344046430802322</v>
+      </c>
+      <c r="G11" s="14">
+        <v>7.9182864714284387</v>
+      </c>
+      <c r="H11" s="14">
+        <v>8.4278933842208499</v>
+      </c>
+      <c r="I11" s="14">
+        <v>8.0007505173137794</v>
+      </c>
+      <c r="J11" s="14">
+        <v>8.5821749197966568</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="12"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="12"/>
+      <c r="BN11" s="12"/>
+      <c r="BO11" s="12"/>
+      <c r="BP11" s="12"/>
+      <c r="BQ11" s="12"/>
+      <c r="BR11" s="12"/>
+      <c r="BS11" s="12"/>
+    </row>
+    <row r="12" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <v>7.9493107060221888</v>
+      </c>
+      <c r="C12" s="14">
+        <v>7.2178580228417886</v>
+      </c>
+      <c r="D12" s="14">
+        <v>7.0683443600860647</v>
+      </c>
+      <c r="E12" s="14">
+        <v>9.0022782723851176</v>
+      </c>
+      <c r="F12" s="14">
+        <v>8.5361029649050018</v>
+      </c>
+      <c r="G12" s="14">
+        <v>8.0674564418963381</v>
+      </c>
+      <c r="H12" s="14">
+        <v>8.2609855751748658</v>
+      </c>
+      <c r="I12" s="14">
+        <v>7.9631277511110019</v>
+      </c>
+      <c r="J12" s="14">
+        <v>8.509028701368905</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+      <c r="BH12" s="12"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="12"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="12"/>
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="12"/>
+      <c r="BP12" s="12"/>
+      <c r="BQ12" s="12"/>
+      <c r="BR12" s="12"/>
+      <c r="BS12" s="12"/>
+    </row>
+    <row r="13" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14">
+        <v>7.9859999999999998</v>
+      </c>
+      <c r="C13" s="14">
+        <v>7.2409999999999997</v>
+      </c>
+      <c r="D13" s="14">
+        <v>7.8259999999999996</v>
+      </c>
+      <c r="E13" s="14">
+        <v>8.8350000000000009</v>
+      </c>
+      <c r="F13" s="14">
+        <v>8.6340000000000003</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7.8849999999999998</v>
+      </c>
+      <c r="H13" s="14">
+        <v>8.42</v>
+      </c>
+      <c r="I13" s="14">
+        <v>7.9939999999999998</v>
+      </c>
+      <c r="J13" s="14">
+        <v>8.5459999999999994</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+      <c r="BH13" s="12"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="12"/>
+      <c r="BN13" s="12"/>
+      <c r="BO13" s="12"/>
+      <c r="BP13" s="12"/>
+      <c r="BQ13" s="12"/>
+      <c r="BR13" s="12"/>
+      <c r="BS13" s="12"/>
+      <c r="BT13" s="12"/>
+      <c r="BU13" s="12"/>
+      <c r="BV13" s="12"/>
+      <c r="BW13" s="12"/>
+    </row>
+    <row r="14" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14">
+        <v>7.9189999999999996</v>
+      </c>
+      <c r="C14" s="14">
+        <v>7.1989999999999998</v>
+      </c>
+      <c r="D14" s="14">
+        <v>7.0019999999999998</v>
+      </c>
+      <c r="E14" s="14">
+        <v>9.0489999999999995</v>
+      </c>
+      <c r="F14" s="14">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="G14" s="14">
+        <v>7.9950000000000001</v>
+      </c>
+      <c r="H14" s="14">
+        <v>8.2349999999999994</v>
+      </c>
+      <c r="I14" s="14">
+        <v>7.97</v>
+      </c>
+      <c r="J14" s="14">
+        <v>8.5229999999999997</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12"/>
+      <c r="BP14" s="12"/>
+      <c r="BQ14" s="12"/>
+      <c r="BR14" s="12"/>
+      <c r="BS14" s="12"/>
+      <c r="BT14" s="12"/>
+      <c r="BU14" s="12"/>
+      <c r="BV14" s="12"/>
+      <c r="BW14" s="12"/>
+    </row>
+    <row r="15" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="14">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="C15" s="14">
+        <v>7.3280000000000003</v>
+      </c>
+      <c r="D15" s="14">
+        <v>7.5869999999999997</v>
+      </c>
+      <c r="E15" s="14">
+        <v>8.8049999999999997</v>
+      </c>
+      <c r="F15" s="14">
+        <v>8.6519999999999992</v>
+      </c>
+      <c r="G15" s="14">
+        <v>7.9379999999999997</v>
+      </c>
+      <c r="H15" s="14">
+        <v>8.4079999999999995</v>
+      </c>
+      <c r="I15" s="14">
+        <v>8.0239999999999991</v>
+      </c>
+      <c r="J15" s="14">
+        <v>8.5570000000000004</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BM15" s="12"/>
+      <c r="BN15" s="12"/>
+      <c r="BO15" s="12"/>
+      <c r="BP15" s="12"/>
+      <c r="BQ15" s="12"/>
+      <c r="BR15" s="12"/>
+    </row>
+    <row r="16" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14">
+        <v>7.9089999999999998</v>
+      </c>
+      <c r="C16" s="14">
+        <v>7.31</v>
+      </c>
+      <c r="D16" s="14">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="E16" s="14">
+        <v>8.9540000000000006</v>
+      </c>
+      <c r="F16" s="14">
+        <v>8.4190000000000005</v>
+      </c>
+      <c r="G16" s="14">
+        <v>8.0850000000000009</v>
+      </c>
+      <c r="H16" s="14">
+        <v>8.2210000000000001</v>
+      </c>
+      <c r="I16" s="14">
+        <v>8.0120000000000005</v>
+      </c>
+      <c r="J16" s="14">
+        <v>8.5419999999999998</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="12"/>
+    </row>
+    <row r="17" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14">
+        <v>8.0790000000000006</v>
+      </c>
+      <c r="C17" s="14">
+        <v>7.3390000000000004</v>
+      </c>
+      <c r="D17" s="14">
+        <v>7.8390000000000004</v>
+      </c>
+      <c r="E17" s="14">
+        <v>8.827</v>
+      </c>
+      <c r="F17" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G17" s="14">
+        <v>7.88</v>
+      </c>
+      <c r="H17" s="14">
+        <v>8.4149999999999991</v>
+      </c>
+      <c r="I17" s="14">
+        <v>7.931</v>
+      </c>
+      <c r="J17" s="14">
+        <v>8.5280000000000005</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
+    </row>
+    <row r="18" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="14">
+        <v>7.9539999999999997</v>
+      </c>
+      <c r="C18" s="14">
+        <v>7.2960000000000003</v>
+      </c>
+      <c r="D18" s="14">
+        <v>6.7290000000000001</v>
+      </c>
+      <c r="E18" s="14">
+        <v>8.9559999999999995</v>
+      </c>
+      <c r="F18" s="14">
+        <v>8.5730000000000004</v>
+      </c>
+      <c r="G18" s="14">
+        <v>8.0139999999999993</v>
+      </c>
+      <c r="H18" s="14">
+        <v>8.2319999999999993</v>
+      </c>
+      <c r="I18" s="14">
+        <v>7.9530000000000003</v>
+      </c>
+      <c r="J18" s="14">
+        <v>8.4969999999999999</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+      <c r="BR18" s="12"/>
+      <c r="BS18" s="12"/>
+      <c r="BT18" s="12"/>
+      <c r="BU18" s="12"/>
+      <c r="BV18" s="12"/>
+    </row>
+    <row r="19" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14">
+        <v>8.0939999999999994</v>
+      </c>
+      <c r="C19" s="14">
+        <v>7.367</v>
+      </c>
+      <c r="D19" s="14">
+        <v>7.6790000000000003</v>
+      </c>
+      <c r="E19" s="14">
+        <v>8.73</v>
+      </c>
+      <c r="F19" s="14">
+        <v>8.7240000000000002</v>
+      </c>
+      <c r="G19" s="14">
+        <v>7.9980000000000002</v>
+      </c>
+      <c r="H19" s="14">
+        <v>8.4239999999999995</v>
+      </c>
+      <c r="I19" s="14">
+        <v>8.0909999999999993</v>
+      </c>
+      <c r="J19" s="14">
+        <v>8.5820000000000007</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
+      <c r="BR19" s="12"/>
+      <c r="BS19" s="12"/>
+      <c r="BT19" s="12"/>
+      <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
+      <c r="BW19" s="12"/>
+    </row>
+    <row r="20" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="C20" s="14">
+        <v>7.3689999999999998</v>
+      </c>
+      <c r="D20" s="14">
+        <v>6.8159999999999998</v>
+      </c>
+      <c r="E20" s="14">
+        <v>8.9139999999999997</v>
+      </c>
+      <c r="F20" s="14">
+        <v>8.6270000000000007</v>
+      </c>
+      <c r="G20" s="14">
+        <v>8.1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>8.2919999999999998</v>
+      </c>
+      <c r="I20" s="14">
+        <v>8.0429999999999993</v>
+      </c>
+      <c r="J20" s="14">
+        <v>8.4819999999999993</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="12"/>
+      <c r="BR20" s="12"/>
+      <c r="BS20" s="12"/>
+      <c r="BT20" s="12"/>
+      <c r="BU20" s="12"/>
+      <c r="BV20" s="12"/>
+      <c r="BW20" s="12"/>
+    </row>
+    <row r="21" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="14">
+        <v>8.2219999999999995</v>
+      </c>
+      <c r="C21" s="14">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="D21" s="14">
+        <v>7.8949999999999996</v>
+      </c>
+      <c r="E21" s="14">
+        <v>8.7579999999999991</v>
+      </c>
+      <c r="F21" s="14">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="G21" s="14">
+        <v>8.0210000000000008</v>
+      </c>
+      <c r="H21" s="14">
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="I21" s="14">
+        <v>8.016</v>
+      </c>
+      <c r="J21" s="14">
+        <v>8.6159999999999997</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
+      <c r="BQ21" s="12"/>
+      <c r="BR21" s="12"/>
+      <c r="BS21" s="12"/>
+      <c r="BT21" s="12"/>
+      <c r="BU21" s="12"/>
+      <c r="BV21" s="12"/>
+      <c r="BW21" s="12"/>
+      <c r="BX21" s="12"/>
+      <c r="BY21" s="12"/>
+    </row>
+    <row r="22" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="14">
+        <v>8.1790000000000003</v>
+      </c>
+      <c r="C22" s="14">
+        <v>7.1689999999999996</v>
+      </c>
+      <c r="D22" s="14">
+        <v>7.0759999999999996</v>
+      </c>
+      <c r="E22" s="14">
+        <v>8.8490000000000002</v>
+      </c>
+      <c r="F22" s="14">
+        <v>8.6440000000000001</v>
+      </c>
+      <c r="G22" s="14">
+        <v>8.1129999999999995</v>
+      </c>
+      <c r="H22" s="14">
+        <v>8.4770000000000003</v>
+      </c>
+      <c r="I22" s="14">
+        <v>8.048</v>
+      </c>
+      <c r="J22" s="14">
+        <v>8.577</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+      <c r="BO22" s="12"/>
+      <c r="BP22" s="12"/>
+      <c r="BQ22" s="12"/>
+      <c r="BR22" s="12"/>
+      <c r="BS22" s="12"/>
+      <c r="BT22" s="12"/>
+      <c r="BU22" s="12"/>
+      <c r="BV22" s="12"/>
+      <c r="BW22" s="12"/>
+      <c r="BX22" s="12"/>
+      <c r="BY22" s="12"/>
+    </row>
+    <row r="23" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="14">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="C23" s="14">
+        <v>7.2469999999999999</v>
+      </c>
+      <c r="D23" s="14">
+        <v>7.9569999999999999</v>
+      </c>
+      <c r="E23" s="14">
+        <v>8.7370000000000001</v>
+      </c>
+      <c r="F23" s="14">
+        <v>8.6980000000000004</v>
+      </c>
+      <c r="G23" s="14">
+        <v>7.98</v>
+      </c>
+      <c r="H23" s="14">
+        <v>8.5830000000000002</v>
+      </c>
+      <c r="I23" s="14">
+        <v>7.9930000000000003</v>
+      </c>
+      <c r="J23" s="14">
+        <v>8.6140000000000008</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12"/>
+      <c r="BP23" s="12"/>
+      <c r="BQ23" s="12"/>
+      <c r="BR23" s="12"/>
+      <c r="BS23" s="12"/>
+      <c r="BT23" s="12"/>
+      <c r="BU23" s="12"/>
+      <c r="BV23" s="12"/>
+      <c r="BW23" s="12"/>
+      <c r="BX23" s="12"/>
+      <c r="BY23" s="12"/>
+      <c r="BZ23" s="12"/>
+      <c r="CA23" s="12"/>
+    </row>
+    <row r="24" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="14">
+        <v>8.1140000000000008</v>
+      </c>
+      <c r="C24" s="14">
+        <v>7.1529999999999996</v>
+      </c>
+      <c r="D24" s="14">
+        <v>7.2469999999999999</v>
+      </c>
+      <c r="E24" s="14">
+        <v>8.8059999999999992</v>
+      </c>
+      <c r="F24" s="14">
+        <v>8.6259999999999994</v>
+      </c>
+      <c r="G24" s="14">
+        <v>8.0670000000000002</v>
+      </c>
+      <c r="H24" s="14">
+        <v>8.4760000000000009</v>
+      </c>
+      <c r="I24" s="14">
+        <v>7.9720000000000004</v>
+      </c>
+      <c r="J24" s="14">
+        <v>8.5739999999999998</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
+      <c r="BH24" s="12"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="12"/>
+      <c r="BP24" s="12"/>
+      <c r="BQ24" s="12"/>
+      <c r="BR24" s="12"/>
+      <c r="BS24" s="12"/>
+      <c r="BT24" s="12"/>
+      <c r="BU24" s="12"/>
+      <c r="BV24" s="12"/>
+      <c r="BW24" s="12"/>
+      <c r="BX24" s="12"/>
+      <c r="BY24" s="12"/>
+      <c r="BZ24" s="12"/>
+      <c r="CA24" s="12"/>
+    </row>
+    <row r="25" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="14">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="C25" s="14">
+        <v>7.2859999999999996</v>
+      </c>
+      <c r="D25" s="14">
+        <v>7.907</v>
+      </c>
+      <c r="E25" s="14">
+        <v>8.7140000000000004</v>
+      </c>
+      <c r="F25" s="14">
+        <v>8.6739999999999995</v>
+      </c>
+      <c r="G25" s="14">
+        <v>7.9669999999999996</v>
+      </c>
+      <c r="H25" s="14">
+        <v>8.5890000000000004</v>
+      </c>
+      <c r="I25" s="14">
+        <v>7.9509999999999996</v>
+      </c>
+      <c r="J25" s="14">
+        <v>8.5809999999999995</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+      <c r="BG25" s="12"/>
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="12"/>
+      <c r="BN25" s="12"/>
+      <c r="BO25" s="12"/>
+      <c r="BP25" s="12"/>
+      <c r="BQ25" s="12"/>
+      <c r="BR25" s="12"/>
+      <c r="BS25" s="12"/>
+      <c r="BT25" s="12"/>
+      <c r="BU25" s="12"/>
+      <c r="BV25" s="12"/>
+      <c r="BW25" s="12"/>
+      <c r="BX25" s="12"/>
+      <c r="BY25" s="12"/>
+    </row>
+    <row r="26" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="14">
+        <v>8.1170000000000009</v>
+      </c>
+      <c r="C26" s="14">
+        <v>7.1689999999999996</v>
+      </c>
+      <c r="D26" s="14">
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="E26" s="14">
+        <v>8.8070000000000004</v>
+      </c>
+      <c r="F26" s="14">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="G26" s="14">
+        <v>8.0960000000000001</v>
+      </c>
+      <c r="H26" s="14">
+        <v>8.4619999999999997</v>
+      </c>
+      <c r="I26" s="14">
+        <v>7.9729999999999999</v>
+      </c>
+      <c r="J26" s="14">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="12"/>
+      <c r="BE26" s="12"/>
+      <c r="BF26" s="12"/>
+      <c r="BG26" s="12"/>
+      <c r="BH26" s="12"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
+      <c r="BM26" s="12"/>
+      <c r="BN26" s="12"/>
+      <c r="BO26" s="12"/>
+      <c r="BP26" s="12"/>
+      <c r="BQ26" s="12"/>
+      <c r="BR26" s="12"/>
+      <c r="BS26" s="12"/>
+      <c r="BT26" s="12"/>
+      <c r="BU26" s="12"/>
+      <c r="BV26" s="12"/>
+      <c r="BW26" s="12"/>
+      <c r="BX26" s="12"/>
+      <c r="BY26" s="12"/>
+    </row>
+    <row r="27" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="14">
+        <v>8.1880000000000006</v>
+      </c>
+      <c r="C27" s="14">
+        <v>7.1779999999999999</v>
+      </c>
+      <c r="D27" s="14">
+        <v>7.8339999999999996</v>
+      </c>
+      <c r="E27" s="14">
+        <v>8.7270000000000003</v>
+      </c>
+      <c r="F27" s="14">
+        <v>8.6660000000000004</v>
+      </c>
+      <c r="G27" s="14">
+        <v>7.9509999999999996</v>
+      </c>
+      <c r="H27" s="14">
+        <v>8.5820000000000007</v>
+      </c>
+      <c r="I27" s="14">
+        <v>7.9749999999999996</v>
+      </c>
+      <c r="J27" s="14">
+        <v>8.58</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+      <c r="BC27" s="12"/>
+      <c r="BD27" s="12"/>
+      <c r="BE27" s="12"/>
+      <c r="BF27" s="12"/>
+      <c r="BG27" s="12"/>
+      <c r="BH27" s="12"/>
+      <c r="BI27" s="12"/>
+      <c r="BJ27" s="12"/>
+      <c r="BK27" s="12"/>
+      <c r="BL27" s="12"/>
+      <c r="BM27" s="12"/>
+      <c r="BN27" s="12"/>
+      <c r="BO27" s="12"/>
+      <c r="BP27" s="12"/>
+      <c r="BQ27" s="12"/>
+      <c r="BR27" s="12"/>
+      <c r="BS27" s="12"/>
+      <c r="BT27" s="12"/>
+      <c r="BU27" s="12"/>
+      <c r="BV27" s="12"/>
+      <c r="BW27" s="12"/>
+      <c r="BX27" s="12"/>
+      <c r="BY27" s="12"/>
+    </row>
+    <row r="28" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="14">
+        <v>8.0950000000000006</v>
+      </c>
+      <c r="C28" s="14">
+        <v>7.0439999999999996</v>
+      </c>
+      <c r="D28" s="14">
+        <v>7.1210000000000004</v>
+      </c>
+      <c r="E28" s="14">
+        <v>8.7910000000000004</v>
+      </c>
+      <c r="F28" s="14">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="G28" s="14">
+        <v>8.07</v>
+      </c>
+      <c r="H28" s="14">
+        <v>8.44</v>
+      </c>
+      <c r="I28" s="14">
+        <v>7.9809999999999999</v>
+      </c>
+      <c r="J28" s="14">
+        <v>8.6080000000000005</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="12"/>
+      <c r="BQ28" s="12"/>
+      <c r="BR28" s="12"/>
+      <c r="BS28" s="12"/>
+      <c r="BT28" s="12"/>
+      <c r="BU28" s="12"/>
+      <c r="BV28" s="12"/>
+      <c r="BW28" s="12"/>
+      <c r="BX28" s="12"/>
+      <c r="BY28" s="12"/>
+    </row>
+    <row r="29" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="14">
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="C29" s="14">
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="D29" s="14">
+        <v>7.7960000000000003</v>
+      </c>
+      <c r="E29" s="14">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="F29" s="14">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="G29" s="14">
+        <v>7.9749999999999996</v>
+      </c>
+      <c r="H29" s="14">
+        <v>8.5530000000000008</v>
+      </c>
+      <c r="I29" s="14">
+        <v>8.0730000000000004</v>
+      </c>
+      <c r="J29" s="14">
+        <v>8.6820000000000004</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12"/>
+      <c r="BG29" s="12"/>
+      <c r="BH29" s="12"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="12"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12"/>
+      <c r="BP29" s="12"/>
+      <c r="BQ29" s="12"/>
+      <c r="BR29" s="12"/>
+      <c r="BS29" s="12"/>
+      <c r="BT29" s="12"/>
+      <c r="BU29" s="12"/>
+      <c r="BV29" s="12"/>
+      <c r="BW29" s="12"/>
+      <c r="BX29" s="12"/>
+    </row>
+    <row r="30" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="14">
+        <v>8.08</v>
+      </c>
+      <c r="C30" s="14">
+        <v>7.1059999999999999</v>
+      </c>
+      <c r="D30" s="14">
+        <v>6.9859999999999998</v>
+      </c>
+      <c r="E30" s="14">
+        <v>8.8379999999999992</v>
+      </c>
+      <c r="F30" s="14">
+        <v>8.6120000000000001</v>
+      </c>
+      <c r="G30" s="14">
+        <v>8.0649999999999995</v>
+      </c>
+      <c r="H30" s="14">
+        <v>8.4109999999999996</v>
+      </c>
+      <c r="I30" s="14">
+        <v>8.0210000000000008</v>
+      </c>
+      <c r="J30" s="14">
+        <v>8.673</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="12"/>
+      <c r="BC30" s="12"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="12"/>
+      <c r="BK30" s="12"/>
+      <c r="BL30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12"/>
+      <c r="BP30" s="12"/>
+      <c r="BQ30" s="12"/>
+      <c r="BR30" s="12"/>
+      <c r="BS30" s="12"/>
+      <c r="BT30" s="12"/>
+      <c r="BU30" s="12"/>
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="12"/>
+      <c r="BX30" s="12"/>
+    </row>
+    <row r="31" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14">
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="C31" s="14">
+        <v>7.1820000000000004</v>
+      </c>
+      <c r="D31" s="14">
+        <v>7.6959999999999997</v>
+      </c>
+      <c r="E31" s="14">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="F31" s="14">
+        <v>8.76</v>
+      </c>
+      <c r="G31" s="14">
+        <v>8.0510000000000002</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="J31" s="14">
+        <v>8.7929999999999993</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="12"/>
+      <c r="BC31" s="12"/>
+      <c r="BD31" s="12"/>
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12"/>
+      <c r="BG31" s="12"/>
+      <c r="BH31" s="12"/>
+      <c r="BI31" s="12"/>
+      <c r="BJ31" s="12"/>
+      <c r="BK31" s="12"/>
+      <c r="BL31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+      <c r="BP31" s="12"/>
+      <c r="BQ31" s="12"/>
+      <c r="BR31" s="12"/>
+      <c r="BS31" s="12"/>
+      <c r="BT31" s="12"/>
+      <c r="BU31" s="12"/>
+      <c r="BV31" s="12"/>
+      <c r="BW31" s="12"/>
+      <c r="BX31" s="12"/>
+      <c r="BY31" s="12"/>
+      <c r="BZ31" s="12"/>
+      <c r="CA31" s="12"/>
+    </row>
+    <row r="32" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="14">
+        <v>8.1639999999999997</v>
+      </c>
+      <c r="C32" s="14">
+        <v>7.0119999999999996</v>
+      </c>
+      <c r="D32" s="14">
+        <v>7.0229999999999997</v>
+      </c>
+      <c r="E32" s="14">
+        <v>8.8979999999999997</v>
+      </c>
+      <c r="F32" s="14">
+        <v>8.6690000000000005</v>
+      </c>
+      <c r="G32" s="14">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14">
+        <v>7.9710000000000001</v>
+      </c>
+      <c r="J32" s="14">
+        <v>8.6679999999999993</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="12"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BU32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="BW32" s="12"/>
+      <c r="BX32" s="12"/>
+      <c r="BY32" s="12"/>
+      <c r="BZ32" s="12"/>
+      <c r="CA32" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/Zufriedenheit-cleaned.xlsx
+++ b/assets/Zufriedenheit-cleaned.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9624b3ea8065e7b/Dokumente/GitHub/Dashboard_Design/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhgraubuenden-my.sharepoint.com/personal/nyffeltamara_fhgr_ch/Documents/PY-Skriptesammlung/FHGR_Data_Visualization/02_DaDe_Zufriedenheits_Dashboard/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EABC2878-4134-421C-8096-C3030AEA7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{EABC2878-4134-421C-8096-C3030AEA7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EADA036-C094-4BF6-BCEE-68F7B396EAD0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{807A4729-B974-43DF-9F85-699DD16C51D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{807A4729-B974-43DF-9F85-699DD16C51D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Cleaned" sheetId="1" r:id="rId1"/>
+    <sheet name="Geschlecht" sheetId="2" r:id="rId2"/>
+    <sheet name="Alter" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cleaned!$A$1:$L$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="23">
   <si>
     <t>Jahr</t>
   </si>
@@ -86,15 +90,37 @@
   <si>
     <t>Arbeitsklima</t>
   </si>
+  <si>
+    <t>Alterskategorie</t>
+  </si>
+  <si>
+    <t>16-17 Jahre</t>
+  </si>
+  <si>
+    <t>#NA</t>
+  </si>
+  <si>
+    <t>18-24 Jahre</t>
+  </si>
+  <si>
+    <t>25-49 Jahre</t>
+  </si>
+  <si>
+    <t>50-64 Jahre</t>
+  </si>
+  <si>
+    <t>65 Jahre +</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,###,##0.0__;\-#,###,##0.0__;@__\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +157,11 @@
     <font>
       <sz val="8"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -182,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,25 +224,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -315,7 +366,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$1</c:f>
+              <c:f>Cleaned!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -338,7 +389,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$47</c:f>
+              <c:f>Cleaned!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -485,7 +536,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$47</c:f>
+              <c:f>Cleaned!$D$2:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="46"/>
@@ -991,7 +1042,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$1</c:f>
+              <c:f>Cleaned!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1024,7 +1075,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$47</c:f>
+              <c:f>Cleaned!$D$2:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="46"/>
@@ -1171,7 +1222,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$47</c:f>
+              <c:f>Cleaned!$E$2:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="46"/>
@@ -2729,13 +2780,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>752134</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>195942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>56134</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>116388</xdr:rowOff>
@@ -2765,13 +2816,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>88785</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>189139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>154785</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>109585</xdr:rowOff>
@@ -2800,10 +2851,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3123,1728 +3170,4762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5028D925-7BF8-434F-99D4-BBA3B585A086}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E113" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="16.265625" style="1" customWidth="1"/>
-    <col min="7" max="11" width="16.265625" customWidth="1"/>
+    <col min="1" max="7" width="16.26953125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="30.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>2022</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>7.9759560665502471</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>7.507666567542099</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>7.7001404695190363</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.9379323588993387</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>8.6142002878013884</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>7.9406867884363646</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>8.4191410655101997</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>7.9569830332541782</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.6076073334145544</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2022</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>8.0247952774609654</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>7.485737731189519</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>8.0627669218249878</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>8.8696270062273239</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>8.7200293622358398</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>7.947223522464494</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>8.5374775551046227</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>7.9478910836882486</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>8.6753600220548268</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2022</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>7.9261466240033416</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>7.529972504917156</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>7.2850459438963506</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>9.0053767571892962</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>8.5061747148869635</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>7.9340173236749294</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>8.298466903639202</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>7.9650643300248136</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>8.548485130461291</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>2021</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>7.8946952789636073</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>7.5573855756616499</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>7.6210356436064659</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>8.9492920966382652</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>8.6474735296235945</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>8.0624505089627991</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>8.4354117263128874</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>8.0739239532240834</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>8.6428157796608147</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>2021</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>7.9396445148999311</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>7.513889611158846</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>7.9967615389257336</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>8.8720399252768924</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>8.7671737628422903</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>8.0636547288957807</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>8.5492174753134815</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>8.0731855814080085</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>8.7122869005466317</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>2021</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>7.848797877244797</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>7.6017218340770372</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>7.1736460880866089</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>9.0251099791432363</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>8.5250747835178657</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>8.0612213432162871</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>8.3192178112408008</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>8.0745776094436508</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>8.5822416891669189</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>2020</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>8.0787553418360396</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>7.4053481852059075</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>7.7426531004035981</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>8.8779645580000395</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>8.6864949158203295</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>8.1171567597156393</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>8.4506053249347683</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>8.1001512178752009</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>8.6152773774560849</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>2020</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>8.1255583029187282</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>7.3813854246057922</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>8.049731411194065</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>8.7644189574527314</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>8.7862352738607914</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>8.0966565857784545</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>8.5302707713629324</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>8.122382639771395</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>8.6907696022127663</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>2020</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>8.0308741968984361</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>7.4297642551763383</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>7.376542994147127</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>8.9893086081678888</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>8.5845994660496121</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>8.1381106376155667</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>8.3692461102030133</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>8.0798750176483676</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>8.5484278245385088</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>2019</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>8.0257415480349117</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>7.2840529999813945</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>7.6404529580442162</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>8.9120344579853299</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>8.6484894860156381</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>7.9974391505817639</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>8.414873698601486</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>8.003754995727336</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>8.6277116569574019</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>2019</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>8.0910719592043563</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>7.3026099328385268</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>7.9729876652913916</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>8.8108771418817575</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>8.7551092952227076</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>7.9667513387756186</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>8.5163083482791198</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>8.0506120376388317</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>8.6933760247535563</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>2019</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>7.9589813896583701</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>7.2651492186157389</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>7.2106572896301824</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>9.0089934187986422</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>8.5395998228839751</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>8.0288124984848874</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>8.3110180791487789</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>7.9621434649017138</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>8.5695326991443626</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>2018</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>7.9633662729724879</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>7.247689248750885</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>7.5122660575353501</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>8.9331301804424452</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>8.6240742564157031</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>7.9869847355404611</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>8.3709529148163142</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>8.0682200099605108</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>8.5603783782306735</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>2018</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>7.9889434047842212</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>7.2811678670367774</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>7.9088674570070321</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>8.8629074105287771</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>8.6932890225281785</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>7.9352475648183116</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>8.4337028947680075</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>8.0736884143927821</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>8.6196889302334316</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>2018</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>7.9371798927798514</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>7.2134723173239053</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>7.0590338735637612</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>9.002686593729079</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>8.5531817957102003</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>8.0399218060964817</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>8.306721599156095</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>8.0633318280382884</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>8.508425021686751</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>2017</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>7.9618459824964383</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>7.211111622829522</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>7.4787540974021054</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>8.9098276952251272</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>8.6365075438912786</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>7.9919560331231612</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>8.3454968752990251</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>7.9807473575199692</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>8.542936548267491</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>2017</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>7.9740634102697827</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>7.2045129648194353</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>7.8299197963044671</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>8.8165472907098117</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>8.7344046430802322</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>7.9182864714284387</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>8.4278933842208499</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>8.0007505173137794</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>8.5821749197966568</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>2017</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>7.9493107060221888</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>7.2178580228417886</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>7.0683443600860647</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>9.0022782723851176</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>8.5361029649050018</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>8.0674564418963381</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>8.2609855751748658</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>7.9631277511110019</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>8.509028701368905</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>2016</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>7.9530000000000003</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>7.22</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>7.4429999999999996</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>8.9420000000000002</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>8.5500000000000007</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>7.9390000000000001</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>8.3290000000000006</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>7.9809999999999999</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>8.5329999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>2016</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>7.9859999999999998</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>7.2409999999999997</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>7.8259999999999996</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>8.8350000000000009</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>8.6340000000000003</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>7.8849999999999998</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>8.42</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>7.9939999999999998</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>8.5459999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>2016</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>7.9189999999999996</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>7.1989999999999998</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>7.0019999999999998</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>9.0489999999999995</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>8.4640000000000004</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>7.9950000000000001</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>8.2349999999999994</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>7.97</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>8.5229999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>2015</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>7.9489999999999998</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>7.319</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>7.2969999999999997</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>8.8800000000000008</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>8.5370000000000008</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>8.01</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>8.3160000000000007</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>8.0169999999999995</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>8.5489999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>2015</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>7.9880000000000004</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>7.3280000000000003</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>7.5869999999999997</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>8.8049999999999997</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>8.6519999999999992</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>7.9379999999999997</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>8.4079999999999995</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>8.0239999999999991</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>8.5570000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
         <v>2015</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>7.9089999999999998</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>7.31</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>6.9550000000000001</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>8.9540000000000006</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>8.4190000000000005</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>8.0850000000000009</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>8.2210000000000001</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>8.0120000000000005</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>8.5419999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
         <v>2014</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>8.0180000000000007</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>7.3179999999999996</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>7.3369999999999997</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>8.8919999999999995</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>8.6579999999999995</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>7.9459999999999997</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>8.3249999999999993</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>7.9429999999999996</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>8.5109999999999992</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
         <v>2014</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>8.0790000000000006</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>7.3390000000000004</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>7.8390000000000004</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>8.827</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>8.74</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>7.88</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>8.4149999999999991</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>7.931</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>8.5280000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
         <v>2014</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>7.9539999999999997</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>7.2960000000000003</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>6.7290000000000001</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>8.9559999999999995</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>8.5730000000000004</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>8.2319999999999993</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>7.9530000000000003</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>8.4969999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
         <v>2013</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>8.0470000000000006</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>7.3680000000000003</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>7.2939999999999996</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>8.8219999999999992</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>8.6760000000000002</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>8.048</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>8.359</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>8.0649999999999995</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>8.5280000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>2013</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>8.0939999999999994</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>7.367</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>7.6790000000000003</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>8.73</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>8.7240000000000002</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>7.9980000000000002</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>8.4239999999999995</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>8.0909999999999993</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>8.5820000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
         <v>2013</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>7.9989999999999997</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>7.3689999999999998</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>6.8159999999999998</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>8.9139999999999997</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>8.6270000000000007</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>8.1</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>8.2919999999999998</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>8.0429999999999993</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>8.4819999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
         <v>2012</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>8.2010000000000005</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>7.1929999999999996</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>7.5410000000000004</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>8.8040000000000003</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>8.6739999999999995</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>8.0660000000000007</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>8.5220000000000002</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>8.0329999999999995</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>8.5950000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
         <v>2012</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>8.2219999999999995</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>7.2160000000000002</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>7.8949999999999996</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>8.7579999999999991</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>8.7040000000000006</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>8.0210000000000008</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>8.5649999999999995</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>8.016</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>8.6159999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
         <v>2012</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>8.1790000000000003</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>7.1689999999999996</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>7.0759999999999996</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>8.8490000000000002</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>8.6440000000000001</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>8.1129999999999995</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>8.4770000000000003</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>8.048</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>8.577</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
         <v>2011</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>8.1509999999999998</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>7.2009999999999996</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>7.6609999999999996</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>8.7720000000000002</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>8.6630000000000003</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>8.0229999999999997</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>8.5299999999999994</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>7.9820000000000002</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>8.5909999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
         <v>2011</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>8.1859999999999999</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>7.2469999999999999</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>7.9569999999999999</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>8.7370000000000001</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>8.6980000000000004</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>7.98</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>8.5830000000000002</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>7.9930000000000003</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>8.6140000000000008</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
         <v>2011</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>8.1140000000000008</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>7.1529999999999996</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>7.2469999999999999</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>8.8059999999999992</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>8.6259999999999994</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>8.0670000000000002</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>8.4760000000000009</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>7.9720000000000004</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>8.5739999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
         <v>2010</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>8.1519999999999992</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>7.2279999999999998</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>7.5890000000000004</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>8.7609999999999992</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>8.6340000000000003</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>8.0299999999999994</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>8.5269999999999992</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>7.9630000000000001</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>8.5879999999999992</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
         <v>2010</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>8.1859999999999999</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>7.2859999999999996</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>7.907</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>8.7140000000000004</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>8.6739999999999995</v>
       </c>
-      <c r="H39" s="4">
+      <c r="I39" s="4">
         <v>7.9669999999999996</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>8.5890000000000004</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>7.9509999999999996</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>8.5809999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
         <v>2010</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>8.1170000000000009</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>7.1689999999999996</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>7.1269999999999998</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>8.8070000000000004</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>8.5939999999999994</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>8.0960000000000001</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>8.4619999999999997</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>7.9729999999999999</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>8.5939999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
         <v>2009</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>8.1430000000000007</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>7.1120000000000001</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>7.5439999999999996</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>8.7590000000000003</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>8.6310000000000002</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>8.01</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>8.5120000000000005</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>7.9779999999999998</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>8.5960000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
         <v>2009</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>8.1880000000000006</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>7.1779999999999999</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>7.8339999999999996</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>8.7270000000000003</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>8.6660000000000004</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>7.9509999999999996</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>8.5820000000000007</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>7.9749999999999996</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>8.58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
         <v>2009</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>8.0950000000000006</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>7.0439999999999996</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>7.1210000000000004</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>8.7910000000000004</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>8.5939999999999994</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>8.07</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>8.44</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>7.9809999999999999</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>8.6080000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
         <v>2008</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>8.1280000000000001</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>7.1719999999999997</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>7.4619999999999997</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>8.7959999999999994</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>8.64</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>8.0190000000000001</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>8.4830000000000005</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>8.0449999999999999</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>8.6769999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
         <v>2008</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>8.1750000000000007</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>7.2350000000000003</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>7.7960000000000003</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>8.7530000000000001</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>8.6669999999999998</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>7.9749999999999996</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>8.5530000000000008</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>8.0730000000000004</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>8.6820000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
         <v>2008</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>8.08</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>7.1059999999999999</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>6.9859999999999998</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>8.8379999999999992</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>8.6120000000000001</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>8.0649999999999995</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>8.4109999999999996</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>8.0210000000000008</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>8.673</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
         <v>2007</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>8.2200000000000006</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>7.0990000000000002</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>7.4279999999999999</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>8.8889999999999993</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>8.7159999999999993</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>8.1080000000000005</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
         <v>8.0690000000000008</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>8.7240000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48" s="3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
         <v>2007</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>8.2729999999999997</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>7.1820000000000004</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>7.6959999999999997</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>8.8800000000000008</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>8.76</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>8.0510000000000002</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4">
+      <c r="J48" s="4"/>
+      <c r="K48" s="4">
         <v>8.1869999999999994</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>8.7929999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A49" s="3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
         <v>2007</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>8.1639999999999997</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>7.0119999999999996</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>7.0229999999999997</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>8.8979999999999997</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>8.6690000000000005</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>8.1690000000000005</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4">
         <v>7.9710000000000001</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>8.6679999999999993</v>
       </c>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="4">
+        <v>8.3729999999999993</v>
+      </c>
+      <c r="E50" s="4">
+        <v>7.2460000000000004</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H50" s="4">
+        <v>8.8870000000000005</v>
+      </c>
+      <c r="I50" s="4">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4">
+        <v>8.6449999999999996</v>
+      </c>
+      <c r="L50" s="4">
+        <v>8.9269999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="4">
+        <v>8.2149999999999999</v>
+      </c>
+      <c r="E51" s="4">
+        <v>6.3789999999999996</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4">
+        <v>8.6359999999999992</v>
+      </c>
+      <c r="H51" s="4">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="I51" s="4">
+        <v>8.5169999999999995</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4">
+        <v>7.9850000000000003</v>
+      </c>
+      <c r="L51" s="4">
+        <v>8.7520000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="4">
+        <v>8.1080000000000005</v>
+      </c>
+      <c r="E52" s="4">
+        <v>6.8339999999999996</v>
+      </c>
+      <c r="F52" s="4">
+        <v>7.0179999999999998</v>
+      </c>
+      <c r="G52" s="4">
+        <v>8.8520000000000003</v>
+      </c>
+      <c r="H52" s="4">
+        <v>8.6020000000000003</v>
+      </c>
+      <c r="I52" s="4">
+        <v>8.3059999999999992</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4">
+        <v>7.9829999999999997</v>
+      </c>
+      <c r="L52" s="4">
+        <v>8.6549999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="4">
+        <v>8.218</v>
+      </c>
+      <c r="E53" s="4">
+        <v>7.3440000000000003</v>
+      </c>
+      <c r="F53" s="4">
+        <v>7.3780000000000001</v>
+      </c>
+      <c r="G53" s="4">
+        <v>9.0020000000000007</v>
+      </c>
+      <c r="H53" s="4">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="I53" s="4">
+        <v>7.8650000000000002</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="L53" s="4">
+        <v>8.8040000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4">
+        <v>8.4979999999999993</v>
+      </c>
+      <c r="E54" s="4">
+        <v>7.8879999999999999</v>
+      </c>
+      <c r="F54" s="4">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="G54" s="4">
+        <v>9.157</v>
+      </c>
+      <c r="H54" s="4">
+        <v>8.9510000000000005</v>
+      </c>
+      <c r="I54" s="4">
+        <v>7.54</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4">
+        <v>8.9359999999999999</v>
+      </c>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="4">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E55" s="4">
+        <v>7.4470000000000001</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4">
+        <v>8.3940000000000001</v>
+      </c>
+      <c r="H55" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="I55" s="4">
+        <v>8.6159999999999997</v>
+      </c>
+      <c r="J55" s="4">
+        <v>8.6579999999999995</v>
+      </c>
+      <c r="K55" s="4">
+        <v>8.44</v>
+      </c>
+      <c r="L55" s="4">
+        <v>9.0609999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="4">
+        <v>8.1590000000000007</v>
+      </c>
+      <c r="E56" s="4">
+        <v>6.4530000000000003</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4">
+        <v>8.4629999999999992</v>
+      </c>
+      <c r="H56" s="4">
+        <v>8.6470000000000002</v>
+      </c>
+      <c r="I56" s="4">
+        <v>8.43</v>
+      </c>
+      <c r="J56" s="4">
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="K56" s="4">
+        <v>7.9530000000000003</v>
+      </c>
+      <c r="L56" s="4">
+        <v>8.8140000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="4">
+        <v>7.9859999999999998</v>
+      </c>
+      <c r="E57" s="4">
+        <v>6.8570000000000002</v>
+      </c>
+      <c r="F57" s="4">
+        <v>6.9130000000000003</v>
+      </c>
+      <c r="G57" s="4">
+        <v>8.7210000000000001</v>
+      </c>
+      <c r="H57" s="4">
+        <v>8.4749999999999996</v>
+      </c>
+      <c r="I57" s="4">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="J57" s="4">
+        <v>8.1140000000000008</v>
+      </c>
+      <c r="K57" s="4">
+        <v>7.9290000000000003</v>
+      </c>
+      <c r="L57" s="4">
+        <v>8.5779999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="4">
+        <v>8.1349999999999998</v>
+      </c>
+      <c r="E58" s="4">
+        <v>7.4139999999999997</v>
+      </c>
+      <c r="F58" s="4">
+        <v>7.4409999999999998</v>
+      </c>
+      <c r="G58" s="4">
+        <v>8.9049999999999994</v>
+      </c>
+      <c r="H58" s="4">
+        <v>8.6359999999999992</v>
+      </c>
+      <c r="I58" s="4">
+        <v>7.7949999999999999</v>
+      </c>
+      <c r="J58" s="4">
+        <v>8.7129999999999992</v>
+      </c>
+      <c r="K58" s="4">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="L58" s="4">
+        <v>8.7390000000000008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="4">
+        <v>8.407</v>
+      </c>
+      <c r="E59" s="4">
+        <v>7.9859999999999998</v>
+      </c>
+      <c r="F59" s="4">
+        <v>8.01</v>
+      </c>
+      <c r="G59" s="4">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H59" s="4">
+        <v>9.02</v>
+      </c>
+      <c r="I59" s="4">
+        <v>7.5659999999999998</v>
+      </c>
+      <c r="J59" s="4">
+        <v>9.1460000000000008</v>
+      </c>
+      <c r="K59" s="4">
+        <v>9.077</v>
+      </c>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="4">
+        <v>8.4420000000000002</v>
+      </c>
+      <c r="E60" s="4">
+        <v>7.2910000000000004</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4">
+        <v>8.5519999999999996</v>
+      </c>
+      <c r="H60" s="4">
+        <v>8.8089999999999993</v>
+      </c>
+      <c r="I60" s="4">
+        <v>8.4789999999999992</v>
+      </c>
+      <c r="J60" s="4">
+        <v>8.6829999999999998</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="4">
+        <v>8.0790000000000006</v>
+      </c>
+      <c r="E61" s="4">
+        <v>6.5179999999999998</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4">
+        <v>8.4540000000000006</v>
+      </c>
+      <c r="H61" s="4">
+        <v>8.7319999999999993</v>
+      </c>
+      <c r="I61" s="4">
+        <v>8.3559999999999999</v>
+      </c>
+      <c r="J61" s="4">
+        <v>8.3650000000000002</v>
+      </c>
+      <c r="K61" s="4">
+        <v>7.9669999999999996</v>
+      </c>
+      <c r="L61" s="4">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="4">
+        <v>7.9859999999999998</v>
+      </c>
+      <c r="E62" s="4">
+        <v>6.8250000000000002</v>
+      </c>
+      <c r="F62" s="4">
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="G62" s="4">
+        <v>8.69</v>
+      </c>
+      <c r="H62" s="4">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="I62" s="4">
+        <v>8.1839999999999993</v>
+      </c>
+      <c r="J62" s="4">
+        <v>8.1229999999999993</v>
+      </c>
+      <c r="K62" s="4">
+        <v>7.8929999999999998</v>
+      </c>
+      <c r="L62" s="4">
+        <v>8.5169999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="4">
+        <v>8.1989999999999998</v>
+      </c>
+      <c r="E63" s="4">
+        <v>7.3630000000000004</v>
+      </c>
+      <c r="F63" s="4">
+        <v>7.6890000000000001</v>
+      </c>
+      <c r="G63" s="4">
+        <v>8.8729999999999993</v>
+      </c>
+      <c r="H63" s="4">
+        <v>8.6509999999999998</v>
+      </c>
+      <c r="I63" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="J63" s="4">
+        <v>8.7789999999999999</v>
+      </c>
+      <c r="K63" s="4">
+        <v>8.0739999999999998</v>
+      </c>
+      <c r="L63" s="4">
+        <v>8.6750000000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="4">
+        <v>8.4350000000000005</v>
+      </c>
+      <c r="E64" s="4">
+        <v>7.8019999999999996</v>
+      </c>
+      <c r="F64" s="4">
+        <v>8.0429999999999993</v>
+      </c>
+      <c r="G64" s="4">
+        <v>9.0879999999999992</v>
+      </c>
+      <c r="H64" s="4">
+        <v>8.9629999999999992</v>
+      </c>
+      <c r="I64" s="4">
+        <v>7.5970000000000004</v>
+      </c>
+      <c r="J64" s="4">
+        <v>9.1630000000000003</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="4">
+        <v>8.484</v>
+      </c>
+      <c r="E65" s="4">
+        <v>7.3360000000000003</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4">
+        <v>8.4710000000000001</v>
+      </c>
+      <c r="H65" s="4">
+        <v>8.7989999999999995</v>
+      </c>
+      <c r="I65" s="4">
+        <v>8.58</v>
+      </c>
+      <c r="J65" s="4">
+        <v>8.8140000000000001</v>
+      </c>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="4">
+        <v>8.1110000000000007</v>
+      </c>
+      <c r="E66" s="4">
+        <v>6.7670000000000003</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4">
+        <v>8.5060000000000002</v>
+      </c>
+      <c r="H66" s="4">
+        <v>8.7469999999999999</v>
+      </c>
+      <c r="I66" s="4">
+        <v>8.4749999999999996</v>
+      </c>
+      <c r="J66" s="4">
+        <v>8.3580000000000005</v>
+      </c>
+      <c r="K66" s="4">
+        <v>7.8330000000000002</v>
+      </c>
+      <c r="L66" s="4">
+        <v>8.8379999999999992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="4">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="E67" s="4">
+        <v>6.9050000000000002</v>
+      </c>
+      <c r="F67" s="4">
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="G67" s="4">
+        <v>8.7050000000000001</v>
+      </c>
+      <c r="H67" s="4">
+        <v>8.468</v>
+      </c>
+      <c r="I67" s="4">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="J67" s="4">
+        <v>8.173</v>
+      </c>
+      <c r="K67" s="4">
+        <v>7.87</v>
+      </c>
+      <c r="L67" s="4">
+        <v>8.4879999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="4">
+        <v>8.1739999999999995</v>
+      </c>
+      <c r="E68" s="4">
+        <v>7.4809999999999999</v>
+      </c>
+      <c r="F68" s="4">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="G68" s="4">
+        <v>8.8569999999999993</v>
+      </c>
+      <c r="H68" s="4">
+        <v>8.6519999999999992</v>
+      </c>
+      <c r="I68" s="4">
+        <v>7.851</v>
+      </c>
+      <c r="J68" s="4">
+        <v>8.7569999999999997</v>
+      </c>
+      <c r="K68" s="4">
+        <v>8.1280000000000001</v>
+      </c>
+      <c r="L68" s="4">
+        <v>8.6639999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="4">
+        <v>8.4789999999999992</v>
+      </c>
+      <c r="E69" s="4">
+        <v>7.9139999999999997</v>
+      </c>
+      <c r="F69" s="4">
+        <v>8.0969999999999995</v>
+      </c>
+      <c r="G69" s="4">
+        <v>9.0510000000000002</v>
+      </c>
+      <c r="H69" s="4">
+        <v>8.9149999999999991</v>
+      </c>
+      <c r="I69" s="4">
+        <v>7.601</v>
+      </c>
+      <c r="J69" s="4">
+        <v>9.1210000000000004</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="4">
+        <v>8.4269999999999996</v>
+      </c>
+      <c r="E70" s="4">
+        <v>7.5039999999999996</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4">
+        <v>8.5809999999999995</v>
+      </c>
+      <c r="H70" s="4">
+        <v>8.9710000000000001</v>
+      </c>
+      <c r="I70" s="4">
+        <v>8.532</v>
+      </c>
+      <c r="J70" s="4">
+        <v>8.7889999999999997</v>
+      </c>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="4">
+        <v>8.109</v>
+      </c>
+      <c r="E71" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4">
+        <v>8.4779999999999998</v>
+      </c>
+      <c r="H71" s="4">
+        <v>8.6850000000000005</v>
+      </c>
+      <c r="I71" s="4">
+        <v>8.4420000000000002</v>
+      </c>
+      <c r="J71" s="4">
+        <v>8.2750000000000004</v>
+      </c>
+      <c r="K71" s="4">
+        <v>7.97</v>
+      </c>
+      <c r="L71" s="4">
+        <v>8.7690000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="4">
+        <v>8.016</v>
+      </c>
+      <c r="E72" s="4">
+        <v>6.8630000000000004</v>
+      </c>
+      <c r="F72" s="4">
+        <v>7.0869999999999997</v>
+      </c>
+      <c r="G72" s="4">
+        <v>8.6920000000000002</v>
+      </c>
+      <c r="H72" s="4">
+        <v>8.4860000000000007</v>
+      </c>
+      <c r="I72" s="4">
+        <v>8.1769999999999996</v>
+      </c>
+      <c r="J72" s="4">
+        <v>8.1630000000000003</v>
+      </c>
+      <c r="K72" s="4">
+        <v>7.8789999999999996</v>
+      </c>
+      <c r="L72" s="4">
+        <v>8.4890000000000008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="4">
+        <v>8.1519999999999992</v>
+      </c>
+      <c r="E73" s="4">
+        <v>7.4379999999999997</v>
+      </c>
+      <c r="F73" s="4">
+        <v>7.7119999999999997</v>
+      </c>
+      <c r="G73" s="4">
+        <v>8.9049999999999994</v>
+      </c>
+      <c r="H73" s="4">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I73" s="4">
+        <v>7.782</v>
+      </c>
+      <c r="J73" s="4">
+        <v>8.8030000000000008</v>
+      </c>
+      <c r="K73" s="4">
+        <v>8.1289999999999996</v>
+      </c>
+      <c r="L73" s="4">
+        <v>8.6940000000000008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="4">
+        <v>8.4410000000000007</v>
+      </c>
+      <c r="E74" s="4">
+        <v>7.92</v>
+      </c>
+      <c r="F74" s="4">
+        <v>8.1639999999999997</v>
+      </c>
+      <c r="G74" s="4">
+        <v>9.0749999999999993</v>
+      </c>
+      <c r="H74" s="4">
+        <v>8.9429999999999996</v>
+      </c>
+      <c r="I74" s="4">
+        <v>7.6589999999999998</v>
+      </c>
+      <c r="J74" s="4">
+        <v>9.1419999999999995</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="4">
+        <v>8.4540000000000006</v>
+      </c>
+      <c r="E75" s="4">
+        <v>7.633</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="H75" s="4">
+        <v>8.8710000000000004</v>
+      </c>
+      <c r="I75" s="4">
+        <v>8.6530000000000005</v>
+      </c>
+      <c r="J75" s="4">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="K75" s="4">
+        <v>8.5730000000000004</v>
+      </c>
+      <c r="L75" s="4">
+        <v>9.1050000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="4">
+        <v>8.2010000000000005</v>
+      </c>
+      <c r="E76" s="4">
+        <v>6.5839999999999996</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4">
+        <v>8.4469999999999992</v>
+      </c>
+      <c r="H76" s="4">
+        <v>8.7479999999999993</v>
+      </c>
+      <c r="I76" s="4">
+        <v>8.4979999999999993</v>
+      </c>
+      <c r="J76" s="4">
+        <v>8.3330000000000002</v>
+      </c>
+      <c r="K76" s="4">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="L76" s="4">
+        <v>8.7159999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="4">
+        <v>8.0519999999999996</v>
+      </c>
+      <c r="E77" s="4">
+        <v>6.8410000000000002</v>
+      </c>
+      <c r="F77" s="4">
+        <v>6.8559999999999999</v>
+      </c>
+      <c r="G77" s="4">
+        <v>8.7469999999999999</v>
+      </c>
+      <c r="H77" s="4">
+        <v>8.5120000000000005</v>
+      </c>
+      <c r="I77" s="4">
+        <v>8.2230000000000008</v>
+      </c>
+      <c r="J77" s="4">
+        <v>8.1679999999999993</v>
+      </c>
+      <c r="K77" s="4">
+        <v>7.9210000000000003</v>
+      </c>
+      <c r="L77" s="4">
+        <v>8.4979999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="4">
+        <v>8.2170000000000005</v>
+      </c>
+      <c r="E78" s="4">
+        <v>7.4509999999999996</v>
+      </c>
+      <c r="F78" s="4">
+        <v>7.7430000000000003</v>
+      </c>
+      <c r="G78" s="4">
+        <v>8.8879999999999999</v>
+      </c>
+      <c r="H78" s="4">
+        <v>8.6829999999999998</v>
+      </c>
+      <c r="I78" s="4">
+        <v>7.83</v>
+      </c>
+      <c r="J78" s="4">
+        <v>8.7279999999999998</v>
+      </c>
+      <c r="K78" s="4">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="L78" s="4">
+        <v>8.6560000000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="4">
+        <v>8.4819999999999993</v>
+      </c>
+      <c r="E79" s="4">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="F79" s="4">
+        <v>8.0030000000000001</v>
+      </c>
+      <c r="G79" s="4">
+        <v>9.1289999999999996</v>
+      </c>
+      <c r="H79" s="4">
+        <v>8.9629999999999992</v>
+      </c>
+      <c r="I79" s="4">
+        <v>7.6890000000000001</v>
+      </c>
+      <c r="J79" s="4">
+        <v>9.1379999999999999</v>
+      </c>
+      <c r="K79" s="4">
+        <v>8.9689999999999994</v>
+      </c>
+      <c r="L79" s="4">
+        <v>9.1329999999999991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="4">
+        <v>8.4260000000000002</v>
+      </c>
+      <c r="E80" s="4">
+        <v>7.5759999999999996</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4">
+        <v>8.5850000000000009</v>
+      </c>
+      <c r="H80" s="4">
+        <v>8.7870000000000008</v>
+      </c>
+      <c r="I80" s="4">
+        <v>8.7669999999999995</v>
+      </c>
+      <c r="J80" s="4">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="4">
+        <v>7.9710000000000001</v>
+      </c>
+      <c r="E81" s="4">
+        <v>6.7670000000000003</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4">
+        <v>8.4760000000000009</v>
+      </c>
+      <c r="H81" s="4">
+        <v>8.8019999999999996</v>
+      </c>
+      <c r="I81" s="4">
+        <v>8.5090000000000003</v>
+      </c>
+      <c r="J81" s="4">
+        <v>8.18</v>
+      </c>
+      <c r="K81" s="4">
+        <v>7.9210000000000003</v>
+      </c>
+      <c r="L81" s="4">
+        <v>8.6549999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="4">
+        <v>7.8929999999999998</v>
+      </c>
+      <c r="E82" s="4">
+        <v>7.0469999999999997</v>
+      </c>
+      <c r="F82" s="4">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="G82" s="4">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="H82" s="4">
+        <v>8.5239999999999991</v>
+      </c>
+      <c r="I82" s="4">
+        <v>8.2379999999999995</v>
+      </c>
+      <c r="J82" s="4">
+        <v>8.0180000000000007</v>
+      </c>
+      <c r="K82" s="4">
+        <v>7.9690000000000003</v>
+      </c>
+      <c r="L82" s="4">
+        <v>8.4320000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="4">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="E83" s="4">
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="F83" s="4">
+        <v>7.367</v>
+      </c>
+      <c r="G83" s="4">
+        <v>8.9009999999999998</v>
+      </c>
+      <c r="H83" s="4">
+        <v>8.6259999999999994</v>
+      </c>
+      <c r="I83" s="4">
+        <v>7.7750000000000004</v>
+      </c>
+      <c r="J83" s="4">
+        <v>8.5429999999999993</v>
+      </c>
+      <c r="K83" s="4">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="L83" s="4">
+        <v>8.5830000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="4">
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="E84" s="4">
+        <v>8.173</v>
+      </c>
+      <c r="F84" s="4">
+        <v>7.6890000000000001</v>
+      </c>
+      <c r="G84" s="4">
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="H84" s="4">
+        <v>8.9870000000000001</v>
+      </c>
+      <c r="I84" s="4">
+        <v>7.6150000000000002</v>
+      </c>
+      <c r="J84" s="4">
+        <v>8.9550000000000001</v>
+      </c>
+      <c r="K84" s="4">
+        <v>8.8019999999999996</v>
+      </c>
+      <c r="L84" s="4">
+        <v>9.1120000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="4">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7.5789999999999997</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4">
+        <v>8.6489999999999991</v>
+      </c>
+      <c r="H85" s="4">
+        <v>8.6820000000000004</v>
+      </c>
+      <c r="I85" s="4">
+        <v>8.5839999999999996</v>
+      </c>
+      <c r="J85" s="4">
+        <v>8.5719999999999992</v>
+      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="4">
+        <v>7.907</v>
+      </c>
+      <c r="E86" s="4">
+        <v>6.68</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H86" s="4">
+        <v>8.7210000000000001</v>
+      </c>
+      <c r="I86" s="4">
+        <v>8.3320000000000007</v>
+      </c>
+      <c r="J86" s="4">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="K86" s="4">
+        <v>7.8840000000000003</v>
+      </c>
+      <c r="L86" s="4">
+        <v>8.5559999999999992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="4">
+        <v>7.8730000000000002</v>
+      </c>
+      <c r="E87" s="4">
+        <v>7.0069999999999997</v>
+      </c>
+      <c r="F87" s="4">
+        <v>6.7809999999999997</v>
+      </c>
+      <c r="G87" s="4">
+        <v>8.8610000000000007</v>
+      </c>
+      <c r="H87" s="4">
+        <v>8.5079999999999991</v>
+      </c>
+      <c r="I87" s="4">
+        <v>8.1440000000000001</v>
+      </c>
+      <c r="J87" s="4">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="K87" s="4">
+        <v>7.8289999999999997</v>
+      </c>
+      <c r="L87" s="4">
+        <v>8.4109999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="4">
+        <v>7.97</v>
+      </c>
+      <c r="E88" s="4">
+        <v>7.4210000000000003</v>
+      </c>
+      <c r="F88" s="4">
+        <v>7.234</v>
+      </c>
+      <c r="G88" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="H88" s="4">
+        <v>8.6259999999999994</v>
+      </c>
+      <c r="I88" s="4">
+        <v>7.66</v>
+      </c>
+      <c r="J88" s="4">
+        <v>8.4969999999999999</v>
+      </c>
+      <c r="K88" s="4">
+        <v>8.0429999999999993</v>
+      </c>
+      <c r="L88" s="4">
+        <v>8.6050000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="4">
+        <v>8.3989999999999991</v>
+      </c>
+      <c r="E89" s="4">
+        <v>8.1620000000000008</v>
+      </c>
+      <c r="F89" s="4">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="G89" s="4">
+        <v>9.1969999999999992</v>
+      </c>
+      <c r="H89" s="4">
+        <v>8.9870000000000001</v>
+      </c>
+      <c r="I89" s="4">
+        <v>7.577</v>
+      </c>
+      <c r="J89" s="4">
+        <v>8.9329999999999998</v>
+      </c>
+      <c r="K89" s="4">
+        <v>8.9169999999999998</v>
+      </c>
+      <c r="L89" s="4">
+        <v>9.1769999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="4">
+        <v>8.4819999999999993</v>
+      </c>
+      <c r="E90" s="4">
+        <v>7.3819999999999997</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4">
+        <v>8.4209999999999994</v>
+      </c>
+      <c r="H90" s="4">
+        <v>8.8030000000000008</v>
+      </c>
+      <c r="I90" s="4">
+        <v>8.64</v>
+      </c>
+      <c r="J90" s="4">
+        <v>8.7059999999999995</v>
+      </c>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="4">
+        <v>7.907</v>
+      </c>
+      <c r="E91" s="4">
+        <v>6.7729999999999997</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4">
+        <v>8.5389999999999997</v>
+      </c>
+      <c r="H91" s="4">
+        <v>8.641</v>
+      </c>
+      <c r="I91" s="4">
+        <v>8.3780000000000001</v>
+      </c>
+      <c r="J91" s="4">
+        <v>8.1110000000000007</v>
+      </c>
+      <c r="K91" s="4">
+        <v>7.9489999999999998</v>
+      </c>
+      <c r="L91" s="4">
+        <v>8.702</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="4">
+        <v>7.7839999999999998</v>
+      </c>
+      <c r="E92" s="4">
+        <v>7.02</v>
+      </c>
+      <c r="F92" s="4">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="G92" s="4">
+        <v>8.8480000000000008</v>
+      </c>
+      <c r="H92" s="4">
+        <v>8.4529999999999994</v>
+      </c>
+      <c r="I92" s="4">
+        <v>8.2569999999999997</v>
+      </c>
+      <c r="J92" s="4">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="K92" s="4">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="L92" s="4">
+        <v>8.4529999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="4">
+        <v>7.8470000000000004</v>
+      </c>
+      <c r="E93" s="4">
+        <v>7.5650000000000004</v>
+      </c>
+      <c r="F93" s="4">
+        <v>7.1639999999999997</v>
+      </c>
+      <c r="G93" s="4">
+        <v>8.9239999999999995</v>
+      </c>
+      <c r="H93" s="4">
+        <v>8.4770000000000003</v>
+      </c>
+      <c r="I93" s="4">
+        <v>7.718</v>
+      </c>
+      <c r="J93" s="4">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="K93" s="4">
+        <v>8.0939999999999994</v>
+      </c>
+      <c r="L93" s="4">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="4">
+        <v>8.3759999999999994</v>
+      </c>
+      <c r="E94" s="4">
+        <v>8.1210000000000004</v>
+      </c>
+      <c r="F94" s="4">
+        <v>7.86</v>
+      </c>
+      <c r="G94" s="4">
+        <v>9.2219999999999995</v>
+      </c>
+      <c r="H94" s="4">
+        <v>8.702</v>
+      </c>
+      <c r="I94" s="4">
+        <v>7.5730000000000004</v>
+      </c>
+      <c r="J94" s="4">
+        <v>8.9120000000000008</v>
+      </c>
+      <c r="K94" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="L94" s="4">
+        <v>9.2110000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="4">
+        <v>8.5120000000000005</v>
+      </c>
+      <c r="E95" s="4">
+        <v>8.0380000000000003</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4">
+        <v>8.7029999999999994</v>
+      </c>
+      <c r="H95" s="4">
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="I95" s="4">
+        <v>8.6890000000000001</v>
+      </c>
+      <c r="J95" s="4">
+        <v>8.7880000000000003</v>
+      </c>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="4">
+        <v>8.0169999999999995</v>
+      </c>
+      <c r="E96" s="4">
+        <v>6.84</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4">
+        <v>8.5990000000000002</v>
+      </c>
+      <c r="H96" s="4">
+        <v>8.6440000000000001</v>
+      </c>
+      <c r="I96" s="4">
+        <v>8.4529999999999994</v>
+      </c>
+      <c r="J96" s="4">
+        <v>8.2140000000000004</v>
+      </c>
+      <c r="K96" s="4">
+        <v>8.0980000000000008</v>
+      </c>
+      <c r="L96" s="4">
+        <v>8.7050000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="4">
+        <v>7.774</v>
+      </c>
+      <c r="E97" s="4">
+        <v>6.8369999999999997</v>
+      </c>
+      <c r="F97" s="4">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="G97" s="4">
+        <v>8.923</v>
+      </c>
+      <c r="H97" s="4">
+        <v>8.4269999999999996</v>
+      </c>
+      <c r="I97" s="4">
+        <v>8.1180000000000003</v>
+      </c>
+      <c r="J97" s="4">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="K97" s="4">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="L97" s="4">
+        <v>8.452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="4">
+        <v>7.851</v>
+      </c>
+      <c r="E98" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="F98" s="4">
+        <v>7.274</v>
+      </c>
+      <c r="G98" s="4">
+        <v>8.9649999999999999</v>
+      </c>
+      <c r="H98" s="4">
+        <v>8.5060000000000002</v>
+      </c>
+      <c r="I98" s="4">
+        <v>7.6470000000000002</v>
+      </c>
+      <c r="J98" s="4">
+        <v>8.4540000000000006</v>
+      </c>
+      <c r="K98" s="4">
+        <v>8.0370000000000008</v>
+      </c>
+      <c r="L98" s="4">
+        <v>8.5489999999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="4">
+        <v>8.35</v>
+      </c>
+      <c r="E99" s="4">
+        <v>7.9889999999999999</v>
+      </c>
+      <c r="F99" s="4">
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="G99" s="4">
+        <v>9.2319999999999993</v>
+      </c>
+      <c r="H99" s="4">
+        <v>8.8049999999999997</v>
+      </c>
+      <c r="I99" s="4">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="J99" s="4">
+        <v>8.8960000000000008</v>
+      </c>
+      <c r="K99" s="4">
+        <v>8.9380000000000006</v>
+      </c>
+      <c r="L99" s="4">
+        <v>9.077</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="4">
+        <v>8.3301459074356856</v>
+      </c>
+      <c r="E100" s="4">
+        <v>7.6479931331177884</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4">
+        <v>8.6442631626053856</v>
+      </c>
+      <c r="H100" s="4">
+        <v>8.8467529158283806</v>
+      </c>
+      <c r="I100" s="4">
+        <v>8.9244650987817575</v>
+      </c>
+      <c r="J100" s="4">
+        <v>8.5068745209308254</v>
+      </c>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="4">
+        <v>7.9322260006410943</v>
+      </c>
+      <c r="E101" s="4">
+        <v>6.7146332807254172</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4">
+        <v>8.6113962475447057</v>
+      </c>
+      <c r="H101" s="4">
+        <v>8.7618375723534871</v>
+      </c>
+      <c r="I101" s="4">
+        <v>8.5659740365113777</v>
+      </c>
+      <c r="J101" s="4">
+        <v>8.3435937525275747</v>
+      </c>
+      <c r="K101" s="4">
+        <v>8.0400087889946761</v>
+      </c>
+      <c r="L101" s="4">
+        <v>8.741137520140164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="4">
+        <v>7.7929427899023613</v>
+      </c>
+      <c r="E102" s="4">
+        <v>6.8327969094905487</v>
+      </c>
+      <c r="F102" s="4">
+        <v>7.0915134533908946</v>
+      </c>
+      <c r="G102" s="4">
+        <v>8.829501885743225</v>
+      </c>
+      <c r="H102" s="4">
+        <v>8.4931385368911307</v>
+      </c>
+      <c r="I102" s="4">
+        <v>8.1731242295408446</v>
+      </c>
+      <c r="J102" s="4">
+        <v>7.9962936450755775</v>
+      </c>
+      <c r="K102" s="4">
+        <v>7.8359566792233615</v>
+      </c>
+      <c r="L102" s="4">
+        <v>8.4304940779390325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="4">
+        <v>7.903831374861694</v>
+      </c>
+      <c r="E103" s="4">
+        <v>7.3331310918850319</v>
+      </c>
+      <c r="F103" s="4">
+        <v>7.2883714826564354</v>
+      </c>
+      <c r="G103" s="4">
+        <v>8.9990549613232567</v>
+      </c>
+      <c r="H103" s="4">
+        <v>8.5968011473333732</v>
+      </c>
+      <c r="I103" s="4">
+        <v>7.7163985438511826</v>
+      </c>
+      <c r="J103" s="4">
+        <v>8.4778999294533257</v>
+      </c>
+      <c r="K103" s="4">
+        <v>8.047476117350941</v>
+      </c>
+      <c r="L103" s="4">
+        <v>8.5826960365655012</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="4">
+        <v>8.3490355292165255</v>
+      </c>
+      <c r="E104" s="4">
+        <v>8.0300647199410875</v>
+      </c>
+      <c r="F104" s="4">
+        <v>8.047990050699724</v>
+      </c>
+      <c r="G104" s="4">
+        <v>9.2251387682673567</v>
+      </c>
+      <c r="H104" s="4">
+        <v>8.8971871191595717</v>
+      </c>
+      <c r="I104" s="4">
+        <v>7.5686828648200972</v>
+      </c>
+      <c r="J104" s="4">
+        <v>8.8898776421119852</v>
+      </c>
+      <c r="K104" s="4">
+        <v>9.1235562927648992</v>
+      </c>
+      <c r="L104" s="4">
+        <v>9.2562237565414396</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="4">
+        <v>7.9697509288927604</v>
+      </c>
+      <c r="E106" s="4">
+        <v>6.928686196683608</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4">
+        <v>8.6466344732734086</v>
+      </c>
+      <c r="H106" s="4">
+        <v>8.7113693871104498</v>
+      </c>
+      <c r="I106" s="4">
+        <v>8.556658582950897</v>
+      </c>
+      <c r="J106" s="4">
+        <v>8.4215432259190699</v>
+      </c>
+      <c r="K106" s="4">
+        <v>8.1708236195004265</v>
+      </c>
+      <c r="L106" s="4">
+        <v>8.6338671354748922</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="4">
+        <v>7.7694532369999987</v>
+      </c>
+      <c r="E107" s="4">
+        <v>6.8028632380128196</v>
+      </c>
+      <c r="F107" s="4">
+        <v>7.189141437816275</v>
+      </c>
+      <c r="G107" s="4">
+        <v>8.8674727864938738</v>
+      </c>
+      <c r="H107" s="4">
+        <v>8.5081550844313831</v>
+      </c>
+      <c r="I107" s="4">
+        <v>8.1815099940462712</v>
+      </c>
+      <c r="J107" s="4">
+        <v>8.0034718650546797</v>
+      </c>
+      <c r="K107" s="4">
+        <v>7.8968511069370404</v>
+      </c>
+      <c r="L107" s="4">
+        <v>8.4619552296772476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="4">
+        <v>7.9184166273289982</v>
+      </c>
+      <c r="E108" s="4">
+        <v>7.3423058990915955</v>
+      </c>
+      <c r="F108" s="4">
+        <v>7.3161024541898252</v>
+      </c>
+      <c r="G108" s="4">
+        <v>8.9715309909634708</v>
+      </c>
+      <c r="H108" s="4">
+        <v>8.5878609206862819</v>
+      </c>
+      <c r="I108" s="4">
+        <v>7.6491211039327487</v>
+      </c>
+      <c r="J108" s="4">
+        <v>8.454169412866424</v>
+      </c>
+      <c r="K108" s="4">
+        <v>8.171747241500988</v>
+      </c>
+      <c r="L108" s="4">
+        <v>8.5945890569168224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="4">
+        <v>8.348481189328318</v>
+      </c>
+      <c r="E109" s="4">
+        <v>8.1368051692918808</v>
+      </c>
+      <c r="F109" s="4">
+        <v>7.9595728405832604</v>
+      </c>
+      <c r="G109" s="4">
+        <v>9.24396070441645</v>
+      </c>
+      <c r="H109" s="4">
+        <v>8.8494214350110152</v>
+      </c>
+      <c r="I109" s="4">
+        <v>7.6128842974834754</v>
+      </c>
+      <c r="J109" s="4">
+        <v>8.9315593639059454</v>
+      </c>
+      <c r="K109" s="4">
+        <v>9.0947897118487191</v>
+      </c>
+      <c r="L109" s="4">
+        <v>9.3485175492514312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="4">
+        <v>8.4006647740380433</v>
+      </c>
+      <c r="E110" s="4">
+        <v>7.7526587137661309</v>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4">
+        <v>8.8591483818543253</v>
+      </c>
+      <c r="H110" s="4">
+        <v>8.7239289503309401</v>
+      </c>
+      <c r="I110" s="4">
+        <v>8.7937042920993527</v>
+      </c>
+      <c r="J110" s="4">
+        <v>9.0430477528754398</v>
+      </c>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="4">
+        <v>8.0443383867405167</v>
+      </c>
+      <c r="E111" s="4">
+        <v>6.8628265542889562</v>
+      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4">
+        <v>8.4222783631126301</v>
+      </c>
+      <c r="H111" s="4">
+        <v>8.6968525925368692</v>
+      </c>
+      <c r="I111" s="4">
+        <v>8.6203351428914363</v>
+      </c>
+      <c r="J111" s="4">
+        <v>8.3831878475671733</v>
+      </c>
+      <c r="K111" s="4">
+        <v>7.9732563185488612</v>
+      </c>
+      <c r="L111" s="4">
+        <v>8.6276137004194489</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="4">
+        <v>7.8214138249469247</v>
+      </c>
+      <c r="E112" s="4">
+        <v>6.8788073861512906</v>
+      </c>
+      <c r="F112" s="4">
+        <v>7.2521687007372115</v>
+      </c>
+      <c r="G112" s="4">
+        <v>8.8743529251601849</v>
+      </c>
+      <c r="H112" s="4">
+        <v>8.5214802032728247</v>
+      </c>
+      <c r="I112" s="4">
+        <v>8.1668328688665515</v>
+      </c>
+      <c r="J112" s="4">
+        <v>8.0478349172666377</v>
+      </c>
+      <c r="K112" s="4">
+        <v>7.8541632670329316</v>
+      </c>
+      <c r="L112" s="4">
+        <v>8.5427805126885481</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="4">
+        <v>7.9429855794481217</v>
+      </c>
+      <c r="E113" s="4">
+        <v>7.371383399540778</v>
+      </c>
+      <c r="F113" s="4">
+        <v>7.5608056355684647</v>
+      </c>
+      <c r="G113" s="4">
+        <v>8.9465359471205712</v>
+      </c>
+      <c r="H113" s="4">
+        <v>8.6137296526802754</v>
+      </c>
+      <c r="I113" s="4">
+        <v>7.7293600947806063</v>
+      </c>
+      <c r="J113" s="4">
+        <v>8.5321787251402412</v>
+      </c>
+      <c r="K113" s="4">
+        <v>8.1252608809647242</v>
+      </c>
+      <c r="L113" s="4">
+        <v>8.6833506611391336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="4">
+        <v>8.4829173172843166</v>
+      </c>
+      <c r="E114" s="4">
+        <v>8.1274162996984938</v>
+      </c>
+      <c r="F114" s="4">
+        <v>8.0792567517342615</v>
+      </c>
+      <c r="G114" s="4">
+        <v>9.2635469781125508</v>
+      </c>
+      <c r="H114" s="4">
+        <v>8.9139842413701924</v>
+      </c>
+      <c r="I114" s="4">
+        <v>7.6168848512054819</v>
+      </c>
+      <c r="J114" s="4">
+        <v>8.952166809378074</v>
+      </c>
+      <c r="K114" s="4">
+        <v>9.0856244032741955</v>
+      </c>
+      <c r="L114" s="4">
+        <v>9.366547795832961</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="4">
+        <v>8.7264467448772898</v>
+      </c>
+      <c r="E115" s="4">
+        <v>8.3428808070761171</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4">
+        <v>8.7597341353384746</v>
+      </c>
+      <c r="H115" s="4">
+        <v>8.928071939379997</v>
+      </c>
+      <c r="I115" s="4">
+        <v>8.8712680611424961</v>
+      </c>
+      <c r="J115" s="4">
+        <v>9.038706568714673</v>
+      </c>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A116" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="4">
+        <v>8.0531134584666777</v>
+      </c>
+      <c r="E116" s="4">
+        <v>7.0463574122083763</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4">
+        <v>8.4027061899048867</v>
+      </c>
+      <c r="H116" s="4">
+        <v>8.5494693894793024</v>
+      </c>
+      <c r="I116" s="4">
+        <v>8.5741953146896179</v>
+      </c>
+      <c r="J116" s="4">
+        <v>8.4194943398952216</v>
+      </c>
+      <c r="K116" s="4">
+        <v>8.1804963895330882</v>
+      </c>
+      <c r="L116" s="4">
+        <v>8.5785117444820926</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="4">
+        <v>7.9280702062009718</v>
+      </c>
+      <c r="E117" s="4">
+        <v>7.0288009060384891</v>
+      </c>
+      <c r="F117" s="4">
+        <v>7.4438483726396703</v>
+      </c>
+      <c r="G117" s="4">
+        <v>8.8444184409271571</v>
+      </c>
+      <c r="H117" s="4">
+        <v>8.5873168566090321</v>
+      </c>
+      <c r="I117" s="4">
+        <v>8.3596614561213691</v>
+      </c>
+      <c r="J117" s="4">
+        <v>8.122094887545904</v>
+      </c>
+      <c r="K117" s="4">
+        <v>7.984046402754795</v>
+      </c>
+      <c r="L117" s="4">
+        <v>8.5744857512552688</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A118" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="4">
+        <v>7.9696816561271921</v>
+      </c>
+      <c r="E118" s="4">
+        <v>7.4045906400943933</v>
+      </c>
+      <c r="F118" s="4">
+        <v>7.668602353666329</v>
+      </c>
+      <c r="G118" s="4">
+        <v>8.9401861340971323</v>
+      </c>
+      <c r="H118" s="4">
+        <v>8.6498132598548647</v>
+      </c>
+      <c r="I118" s="4">
+        <v>7.8077370040970875</v>
+      </c>
+      <c r="J118" s="4">
+        <v>8.4980618416631017</v>
+      </c>
+      <c r="K118" s="4">
+        <v>8.1040888827235555</v>
+      </c>
+      <c r="L118" s="4">
+        <v>8.6396953597745494</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="4">
+        <v>8.4443779045352656</v>
+      </c>
+      <c r="E119" s="4">
+        <v>8.1983265934802354</v>
+      </c>
+      <c r="F119" s="4">
+        <v>8.0921263134253412</v>
+      </c>
+      <c r="G119" s="4">
+        <v>9.1732909233681479</v>
+      </c>
+      <c r="H119" s="4">
+        <v>8.9577561791447771</v>
+      </c>
+      <c r="I119" s="4">
+        <v>7.7301930469903413</v>
+      </c>
+      <c r="J119" s="4">
+        <v>8.9895695782324339</v>
+      </c>
+      <c r="K119" s="4">
+        <v>9.1262108727171842</v>
+      </c>
+      <c r="L119" s="4">
+        <v>9.2538265569941132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="4">
+        <v>8.3102482044680936</v>
+      </c>
+      <c r="E120" s="4">
+        <v>8.1499396072771972</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4">
+        <v>8.8915772743608592</v>
+      </c>
+      <c r="H120" s="4">
+        <v>8.8392909023861659</v>
+      </c>
+      <c r="I120" s="4">
+        <v>8.8456044927090094</v>
+      </c>
+      <c r="J120" s="4">
+        <v>8.8023092539717407</v>
+      </c>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="4">
+        <v>7.6905923985043376</v>
+      </c>
+      <c r="E121" s="4">
+        <v>7.272405875213324</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4">
+        <v>8.4975692154632476</v>
+      </c>
+      <c r="H121" s="4">
+        <v>8.5830065258749499</v>
+      </c>
+      <c r="I121" s="4">
+        <v>8.5786983067931057</v>
+      </c>
+      <c r="J121" s="4">
+        <v>8.380260948216895</v>
+      </c>
+      <c r="K121" s="4">
+        <v>7.9810584274739966</v>
+      </c>
+      <c r="L121" s="4">
+        <v>8.6924218110596296</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="4">
+        <v>7.7536602160827144</v>
+      </c>
+      <c r="E122" s="4">
+        <v>7.1496540874671135</v>
+      </c>
+      <c r="F122" s="4">
+        <v>7.311883344144654</v>
+      </c>
+      <c r="G122" s="4">
+        <v>8.9191262930047017</v>
+      </c>
+      <c r="H122" s="4">
+        <v>8.5776906378032685</v>
+      </c>
+      <c r="I122" s="4">
+        <v>8.2790900547806441</v>
+      </c>
+      <c r="J122" s="4">
+        <v>8.0914870585965843</v>
+      </c>
+      <c r="K122" s="4">
+        <v>7.9679305531181743</v>
+      </c>
+      <c r="L122" s="4">
+        <v>8.6184779786078014</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="4">
+        <v>7.8207382704579516</v>
+      </c>
+      <c r="E123" s="4">
+        <v>7.5875204186756893</v>
+      </c>
+      <c r="F123" s="4">
+        <v>7.5291048982922648</v>
+      </c>
+      <c r="G123" s="4">
+        <v>8.9599644874980005</v>
+      </c>
+      <c r="H123" s="4">
+        <v>8.5361375723869646</v>
+      </c>
+      <c r="I123" s="4">
+        <v>7.7740633492782738</v>
+      </c>
+      <c r="J123" s="4">
+        <v>8.508895743222892</v>
+      </c>
+      <c r="K123" s="4">
+        <v>8.1343579007797473</v>
+      </c>
+      <c r="L123" s="4">
+        <v>8.6199117778466903</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="4">
+        <v>8.2950254480078414</v>
+      </c>
+      <c r="E124" s="4">
+        <v>8.3672326923558114</v>
+      </c>
+      <c r="F124" s="4">
+        <v>8.0174467085170065</v>
+      </c>
+      <c r="G124" s="4">
+        <v>9.2712919335823596</v>
+      </c>
+      <c r="H124" s="4">
+        <v>8.9202566315797007</v>
+      </c>
+      <c r="I124" s="4">
+        <v>7.6854875043777975</v>
+      </c>
+      <c r="J124" s="4">
+        <v>8.9973356845133381</v>
+      </c>
+      <c r="K124" s="4">
+        <v>9.1716725264507915</v>
+      </c>
+      <c r="L124" s="4">
+        <v>9.2145261163275194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="4">
+        <v>7.77473658438758</v>
+      </c>
+      <c r="E125" s="4">
+        <v>7.4343369244182806</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4">
+        <v>8.43648139987957</v>
+      </c>
+      <c r="H125" s="4">
+        <v>8.1384823010528393</v>
+      </c>
+      <c r="I125" s="4">
+        <v>8.4234797730717705</v>
+      </c>
+      <c r="J125" s="4">
+        <v>8.6184123024589709</v>
+      </c>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" s="4">
+        <v>7.744472177852276</v>
+      </c>
+      <c r="E126" s="4">
+        <v>7.0557372618948486</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4">
+        <v>8.3868470601607008</v>
+      </c>
+      <c r="H126" s="4">
+        <v>8.4341520148138063</v>
+      </c>
+      <c r="I126" s="4">
+        <v>8.3198204878945337</v>
+      </c>
+      <c r="J126" s="4">
+        <v>8.2780065368848348</v>
+      </c>
+      <c r="K126" s="4">
+        <v>7.967162909185209</v>
+      </c>
+      <c r="L126" s="4">
+        <v>8.611083107602246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="4">
+        <v>7.8411537379064971</v>
+      </c>
+      <c r="E127" s="4">
+        <v>7.1534152468528607</v>
+      </c>
+      <c r="F127" s="4">
+        <v>7.348407715022482</v>
+      </c>
+      <c r="G127" s="4">
+        <v>8.9561465592294134</v>
+      </c>
+      <c r="H127" s="4">
+        <v>8.5356707545674748</v>
+      </c>
+      <c r="I127" s="4">
+        <v>8.1558245084264875</v>
+      </c>
+      <c r="J127" s="4">
+        <v>8.1183733351346969</v>
+      </c>
+      <c r="K127" s="4">
+        <v>7.8021624052605052</v>
+      </c>
+      <c r="L127" s="4">
+        <v>8.5638109404745002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="4">
+        <v>7.8851847737642284</v>
+      </c>
+      <c r="E128" s="4">
+        <v>7.5663785144062503</v>
+      </c>
+      <c r="F128" s="4">
+        <v>7.6251469451548131</v>
+      </c>
+      <c r="G128" s="4">
+        <v>8.9062268325921501</v>
+      </c>
+      <c r="H128" s="4">
+        <v>8.5434676522549466</v>
+      </c>
+      <c r="I128" s="4">
+        <v>7.6665827004635609</v>
+      </c>
+      <c r="J128" s="4">
+        <v>8.4691742313555878</v>
+      </c>
+      <c r="K128" s="4">
+        <v>8.0606861974137711</v>
+      </c>
+      <c r="L128" s="4">
+        <v>8.6167314477607171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="4">
+        <v>8.4525134053553987</v>
+      </c>
+      <c r="E129" s="4">
+        <v>8.3049308561342716</v>
+      </c>
+      <c r="F129" s="4">
+        <v>8.1172886905897546</v>
+      </c>
+      <c r="G129" s="4">
+        <v>9.3192911253760062</v>
+      </c>
+      <c r="H129" s="4">
+        <v>8.9693453629598068</v>
+      </c>
+      <c r="I129" s="4">
+        <v>7.6456873646273511</v>
+      </c>
+      <c r="J129" s="4">
+        <v>8.9691815645313966</v>
+      </c>
+      <c r="K129" s="4">
+        <v>9.1529376205340061</v>
+      </c>
+      <c r="L129" s="4">
+        <v>9.3633973208218269</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:L49" xr:uid="{5028D925-7BF8-434F-99D4-BBA3B585A086}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4856,12 +7937,12 @@
   <dimension ref="A1:CA32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:J32"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:78" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:78" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4953,7 +8034,7 @@
       <c r="BQ1" s="8"/>
       <c r="BR1" s="8"/>
     </row>
-    <row r="2" spans="1:78" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:78" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -5045,7 +8126,7 @@
       <c r="BQ2" s="8"/>
       <c r="BR2" s="8"/>
     </row>
-    <row r="3" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -5141,7 +8222,7 @@
       <c r="BU3" s="10"/>
       <c r="BV3" s="10"/>
     </row>
-    <row r="4" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -5237,7 +8318,7 @@
       <c r="BU4" s="10"/>
       <c r="BV4" s="10"/>
     </row>
-    <row r="5" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -5337,7 +8418,7 @@
       <c r="BY5" s="10"/>
       <c r="BZ5" s="10"/>
     </row>
-    <row r="6" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:78" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -5437,7 +8518,7 @@
       <c r="BY6" s="10"/>
       <c r="BZ6" s="10"/>
     </row>
-    <row r="7" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -5536,7 +8617,7 @@
       <c r="BX7" s="12"/>
       <c r="BY7" s="12"/>
     </row>
-    <row r="8" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -5635,7 +8716,7 @@
       <c r="BX8" s="12"/>
       <c r="BY8" s="12"/>
     </row>
-    <row r="9" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
@@ -5735,7 +8816,7 @@
       <c r="BY9" s="12"/>
       <c r="BZ9" s="12"/>
     </row>
-    <row r="10" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -5835,7 +8916,7 @@
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
     </row>
-    <row r="11" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
@@ -5928,7 +9009,7 @@
       <c r="BR11" s="12"/>
       <c r="BS11" s="12"/>
     </row>
-    <row r="12" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -6021,7 +9102,7 @@
       <c r="BR12" s="12"/>
       <c r="BS12" s="12"/>
     </row>
-    <row r="13" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -6118,7 +9199,7 @@
       <c r="BV13" s="12"/>
       <c r="BW13" s="12"/>
     </row>
-    <row r="14" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
@@ -6215,7 +9296,7 @@
       <c r="BV14" s="12"/>
       <c r="BW14" s="12"/>
     </row>
-    <row r="15" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -6307,7 +9388,7 @@
       <c r="BQ15" s="12"/>
       <c r="BR15" s="12"/>
     </row>
-    <row r="16" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:78" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -6399,7 +9480,7 @@
       <c r="BQ16" s="12"/>
       <c r="BR16" s="12"/>
     </row>
-    <row r="17" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>5</v>
       </c>
@@ -6495,7 +9576,7 @@
       <c r="BU17" s="12"/>
       <c r="BV17" s="12"/>
     </row>
-    <row r="18" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>6</v>
       </c>
@@ -6591,7 +9672,7 @@
       <c r="BU18" s="12"/>
       <c r="BV18" s="12"/>
     </row>
-    <row r="19" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
@@ -6688,7 +9769,7 @@
       <c r="BV19" s="12"/>
       <c r="BW19" s="12"/>
     </row>
-    <row r="20" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>6</v>
       </c>
@@ -6785,7 +9866,7 @@
       <c r="BV20" s="12"/>
       <c r="BW20" s="12"/>
     </row>
-    <row r="21" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>5</v>
       </c>
@@ -6884,7 +9965,7 @@
       <c r="BX21" s="12"/>
       <c r="BY21" s="12"/>
     </row>
-    <row r="22" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>6</v>
       </c>
@@ -6983,7 +10064,7 @@
       <c r="BX22" s="12"/>
       <c r="BY22" s="12"/>
     </row>
-    <row r="23" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>5</v>
       </c>
@@ -7084,7 +10165,7 @@
       <c r="BZ23" s="12"/>
       <c r="CA23" s="12"/>
     </row>
-    <row r="24" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
@@ -7185,7 +10266,7 @@
       <c r="BZ24" s="12"/>
       <c r="CA24" s="12"/>
     </row>
-    <row r="25" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>5</v>
       </c>
@@ -7284,7 +10365,7 @@
       <c r="BX25" s="12"/>
       <c r="BY25" s="12"/>
     </row>
-    <row r="26" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
@@ -7383,7 +10464,7 @@
       <c r="BX26" s="12"/>
       <c r="BY26" s="12"/>
     </row>
-    <row r="27" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>5</v>
       </c>
@@ -7482,7 +10563,7 @@
       <c r="BX27" s="12"/>
       <c r="BY27" s="12"/>
     </row>
-    <row r="28" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>6</v>
       </c>
@@ -7581,7 +10662,7 @@
       <c r="BX28" s="12"/>
       <c r="BY28" s="12"/>
     </row>
-    <row r="29" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>5</v>
       </c>
@@ -7679,7 +10760,7 @@
       <c r="BW29" s="12"/>
       <c r="BX29" s="12"/>
     </row>
-    <row r="30" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>6</v>
       </c>
@@ -7777,7 +10858,7 @@
       <c r="BW30" s="12"/>
       <c r="BX30" s="12"/>
     </row>
-    <row r="31" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>5</v>
       </c>
@@ -7876,7 +10957,7 @@
       <c r="BZ31" s="12"/>
       <c r="CA31" s="12"/>
     </row>
-    <row r="32" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:79" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>6</v>
       </c>
@@ -7978,4 +11059,2977 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7B9661-6506-4127-A5E3-FFEFFD9312D8}">
+  <dimension ref="A1:U81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="16" customWidth="1"/>
+    <col min="4" max="9" width="10.26953125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.26953125" style="24" customWidth="1"/>
+    <col min="13" max="16384" width="10.90625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="23">
+        <v>8.3729999999999993</v>
+      </c>
+      <c r="E2" s="23">
+        <v>7.2460000000000004</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H2" s="23">
+        <v>8.8870000000000005</v>
+      </c>
+      <c r="I2" s="23">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="K2" s="23">
+        <v>8.6449999999999996</v>
+      </c>
+      <c r="L2" s="23">
+        <v>8.9269999999999996</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="23">
+        <v>8.2149999999999999</v>
+      </c>
+      <c r="E3" s="23">
+        <v>6.3789999999999996</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23">
+        <v>8.6359999999999992</v>
+      </c>
+      <c r="H3" s="23">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="I3" s="23">
+        <v>8.5169999999999995</v>
+      </c>
+      <c r="K3" s="23">
+        <v>7.9850000000000003</v>
+      </c>
+      <c r="L3" s="23">
+        <v>8.7520000000000007</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="23">
+        <v>8.1080000000000005</v>
+      </c>
+      <c r="E4" s="23">
+        <v>6.8339999999999996</v>
+      </c>
+      <c r="F4" s="23">
+        <v>7.0179999999999998</v>
+      </c>
+      <c r="G4" s="23">
+        <v>8.8520000000000003</v>
+      </c>
+      <c r="H4" s="23">
+        <v>8.6020000000000003</v>
+      </c>
+      <c r="I4" s="23">
+        <v>8.3059999999999992</v>
+      </c>
+      <c r="K4" s="23">
+        <v>7.9829999999999997</v>
+      </c>
+      <c r="L4" s="23">
+        <v>8.6549999999999994</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="23">
+        <v>8.218</v>
+      </c>
+      <c r="E5" s="23">
+        <v>7.3440000000000003</v>
+      </c>
+      <c r="F5" s="23">
+        <v>7.3780000000000001</v>
+      </c>
+      <c r="G5" s="23">
+        <v>9.0020000000000007</v>
+      </c>
+      <c r="H5" s="23">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="I5" s="23">
+        <v>7.8650000000000002</v>
+      </c>
+      <c r="K5" s="23">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="L5" s="23">
+        <v>8.8040000000000003</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="23">
+        <v>8.4979999999999993</v>
+      </c>
+      <c r="E6" s="23">
+        <v>7.8879999999999999</v>
+      </c>
+      <c r="F6" s="23">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="G6" s="23">
+        <v>9.157</v>
+      </c>
+      <c r="H6" s="23">
+        <v>8.9510000000000005</v>
+      </c>
+      <c r="I6" s="23">
+        <v>7.54</v>
+      </c>
+      <c r="K6" s="23">
+        <v>8.9359999999999999</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="23">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E7" s="23">
+        <v>7.4470000000000001</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23">
+        <v>8.3940000000000001</v>
+      </c>
+      <c r="H7" s="23">
+        <v>8.75</v>
+      </c>
+      <c r="I7" s="23">
+        <v>8.6159999999999997</v>
+      </c>
+      <c r="J7" s="23">
+        <v>8.6579999999999995</v>
+      </c>
+      <c r="K7" s="23">
+        <v>8.44</v>
+      </c>
+      <c r="L7" s="23">
+        <v>9.0609999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="23">
+        <v>8.1590000000000007</v>
+      </c>
+      <c r="E8" s="23">
+        <v>6.4530000000000003</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23">
+        <v>8.4629999999999992</v>
+      </c>
+      <c r="H8" s="23">
+        <v>8.6470000000000002</v>
+      </c>
+      <c r="I8" s="23">
+        <v>8.43</v>
+      </c>
+      <c r="J8" s="23">
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="K8" s="23">
+        <v>7.9530000000000003</v>
+      </c>
+      <c r="L8" s="23">
+        <v>8.8140000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="23">
+        <v>7.9859999999999998</v>
+      </c>
+      <c r="E9" s="23">
+        <v>6.8570000000000002</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6.9130000000000003</v>
+      </c>
+      <c r="G9" s="23">
+        <v>8.7210000000000001</v>
+      </c>
+      <c r="H9" s="23">
+        <v>8.4749999999999996</v>
+      </c>
+      <c r="I9" s="23">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="J9" s="23">
+        <v>8.1140000000000008</v>
+      </c>
+      <c r="K9" s="23">
+        <v>7.9290000000000003</v>
+      </c>
+      <c r="L9" s="23">
+        <v>8.5779999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="23">
+        <v>8.1349999999999998</v>
+      </c>
+      <c r="E10" s="23">
+        <v>7.4139999999999997</v>
+      </c>
+      <c r="F10" s="23">
+        <v>7.4409999999999998</v>
+      </c>
+      <c r="G10" s="23">
+        <v>8.9049999999999994</v>
+      </c>
+      <c r="H10" s="23">
+        <v>8.6359999999999992</v>
+      </c>
+      <c r="I10" s="23">
+        <v>7.7949999999999999</v>
+      </c>
+      <c r="J10" s="23">
+        <v>8.7129999999999992</v>
+      </c>
+      <c r="K10" s="23">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="L10" s="23">
+        <v>8.7390000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="23">
+        <v>8.407</v>
+      </c>
+      <c r="E11" s="23">
+        <v>7.9859999999999998</v>
+      </c>
+      <c r="F11" s="23">
+        <v>8.01</v>
+      </c>
+      <c r="G11" s="23">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H11" s="23">
+        <v>9.02</v>
+      </c>
+      <c r="I11" s="23">
+        <v>7.5659999999999998</v>
+      </c>
+      <c r="J11" s="23">
+        <v>9.1460000000000008</v>
+      </c>
+      <c r="K11" s="23">
+        <v>9.077</v>
+      </c>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="23">
+        <v>8.4420000000000002</v>
+      </c>
+      <c r="E12" s="23">
+        <v>7.2910000000000004</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23">
+        <v>8.5519999999999996</v>
+      </c>
+      <c r="H12" s="23">
+        <v>8.8089999999999993</v>
+      </c>
+      <c r="I12" s="23">
+        <v>8.4789999999999992</v>
+      </c>
+      <c r="J12" s="23">
+        <v>8.6829999999999998</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="23">
+        <v>8.0790000000000006</v>
+      </c>
+      <c r="E13" s="23">
+        <v>6.5179999999999998</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23">
+        <v>8.4540000000000006</v>
+      </c>
+      <c r="H13" s="23">
+        <v>8.7319999999999993</v>
+      </c>
+      <c r="I13" s="23">
+        <v>8.3559999999999999</v>
+      </c>
+      <c r="J13" s="23">
+        <v>8.3650000000000002</v>
+      </c>
+      <c r="K13" s="23">
+        <v>7.9669999999999996</v>
+      </c>
+      <c r="L13" s="23">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="23">
+        <v>7.9859999999999998</v>
+      </c>
+      <c r="E14" s="23">
+        <v>6.8250000000000002</v>
+      </c>
+      <c r="F14" s="23">
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="G14" s="23">
+        <v>8.69</v>
+      </c>
+      <c r="H14" s="23">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="I14" s="23">
+        <v>8.1839999999999993</v>
+      </c>
+      <c r="J14" s="23">
+        <v>8.1229999999999993</v>
+      </c>
+      <c r="K14" s="23">
+        <v>7.8929999999999998</v>
+      </c>
+      <c r="L14" s="23">
+        <v>8.5169999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>2009</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="23">
+        <v>8.1989999999999998</v>
+      </c>
+      <c r="E15" s="23">
+        <v>7.3630000000000004</v>
+      </c>
+      <c r="F15" s="23">
+        <v>7.6890000000000001</v>
+      </c>
+      <c r="G15" s="23">
+        <v>8.8729999999999993</v>
+      </c>
+      <c r="H15" s="23">
+        <v>8.6509999999999998</v>
+      </c>
+      <c r="I15" s="23">
+        <v>7.79</v>
+      </c>
+      <c r="J15" s="23">
+        <v>8.7789999999999999</v>
+      </c>
+      <c r="K15" s="23">
+        <v>8.0739999999999998</v>
+      </c>
+      <c r="L15" s="23">
+        <v>8.6750000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="23">
+        <v>8.4350000000000005</v>
+      </c>
+      <c r="E16" s="23">
+        <v>7.8019999999999996</v>
+      </c>
+      <c r="F16" s="23">
+        <v>8.0429999999999993</v>
+      </c>
+      <c r="G16" s="23">
+        <v>9.0879999999999992</v>
+      </c>
+      <c r="H16" s="23">
+        <v>8.9629999999999992</v>
+      </c>
+      <c r="I16" s="23">
+        <v>7.5970000000000004</v>
+      </c>
+      <c r="J16" s="23">
+        <v>9.1630000000000003</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="23">
+        <v>8.484</v>
+      </c>
+      <c r="E17" s="23">
+        <v>7.3360000000000003</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23">
+        <v>8.4710000000000001</v>
+      </c>
+      <c r="H17" s="23">
+        <v>8.7989999999999995</v>
+      </c>
+      <c r="I17" s="23">
+        <v>8.58</v>
+      </c>
+      <c r="J17" s="23">
+        <v>8.8140000000000001</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="23">
+        <v>8.1110000000000007</v>
+      </c>
+      <c r="E18" s="23">
+        <v>6.7670000000000003</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23">
+        <v>8.5060000000000002</v>
+      </c>
+      <c r="H18" s="23">
+        <v>8.7469999999999999</v>
+      </c>
+      <c r="I18" s="23">
+        <v>8.4749999999999996</v>
+      </c>
+      <c r="J18" s="23">
+        <v>8.3580000000000005</v>
+      </c>
+      <c r="K18" s="23">
+        <v>7.8330000000000002</v>
+      </c>
+      <c r="L18" s="23">
+        <v>8.8379999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="23">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="E19" s="23">
+        <v>6.9050000000000002</v>
+      </c>
+      <c r="F19" s="23">
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="G19" s="23">
+        <v>8.7050000000000001</v>
+      </c>
+      <c r="H19" s="23">
+        <v>8.468</v>
+      </c>
+      <c r="I19" s="23">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="J19" s="23">
+        <v>8.173</v>
+      </c>
+      <c r="K19" s="23">
+        <v>7.87</v>
+      </c>
+      <c r="L19" s="23">
+        <v>8.4879999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23">
+        <v>8.1739999999999995</v>
+      </c>
+      <c r="E20" s="23">
+        <v>7.4809999999999999</v>
+      </c>
+      <c r="F20" s="23">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="G20" s="23">
+        <v>8.8569999999999993</v>
+      </c>
+      <c r="H20" s="23">
+        <v>8.6519999999999992</v>
+      </c>
+      <c r="I20" s="23">
+        <v>7.851</v>
+      </c>
+      <c r="J20" s="23">
+        <v>8.7569999999999997</v>
+      </c>
+      <c r="K20" s="23">
+        <v>8.1280000000000001</v>
+      </c>
+      <c r="L20" s="23">
+        <v>8.6639999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="23">
+        <v>8.4789999999999992</v>
+      </c>
+      <c r="E21" s="23">
+        <v>7.9139999999999997</v>
+      </c>
+      <c r="F21" s="23">
+        <v>8.0969999999999995</v>
+      </c>
+      <c r="G21" s="23">
+        <v>9.0510000000000002</v>
+      </c>
+      <c r="H21" s="23">
+        <v>8.9149999999999991</v>
+      </c>
+      <c r="I21" s="23">
+        <v>7.601</v>
+      </c>
+      <c r="J21" s="23">
+        <v>9.1210000000000004</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="23">
+        <v>8.4269999999999996</v>
+      </c>
+      <c r="E22" s="23">
+        <v>7.5039999999999996</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23">
+        <v>8.5809999999999995</v>
+      </c>
+      <c r="H22" s="23">
+        <v>8.9710000000000001</v>
+      </c>
+      <c r="I22" s="23">
+        <v>8.532</v>
+      </c>
+      <c r="J22" s="23">
+        <v>8.7889999999999997</v>
+      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="23">
+        <v>8.109</v>
+      </c>
+      <c r="E23" s="23">
+        <v>6.7</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23">
+        <v>8.4779999999999998</v>
+      </c>
+      <c r="H23" s="23">
+        <v>8.6850000000000005</v>
+      </c>
+      <c r="I23" s="23">
+        <v>8.4420000000000002</v>
+      </c>
+      <c r="J23" s="23">
+        <v>8.2750000000000004</v>
+      </c>
+      <c r="K23" s="23">
+        <v>7.97</v>
+      </c>
+      <c r="L23" s="23">
+        <v>8.7690000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="23">
+        <v>8.016</v>
+      </c>
+      <c r="E24" s="23">
+        <v>6.8630000000000004</v>
+      </c>
+      <c r="F24" s="23">
+        <v>7.0869999999999997</v>
+      </c>
+      <c r="G24" s="23">
+        <v>8.6920000000000002</v>
+      </c>
+      <c r="H24" s="23">
+        <v>8.4860000000000007</v>
+      </c>
+      <c r="I24" s="23">
+        <v>8.1769999999999996</v>
+      </c>
+      <c r="J24" s="23">
+        <v>8.1630000000000003</v>
+      </c>
+      <c r="K24" s="23">
+        <v>7.8789999999999996</v>
+      </c>
+      <c r="L24" s="23">
+        <v>8.4890000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="23">
+        <v>8.1519999999999992</v>
+      </c>
+      <c r="E25" s="23">
+        <v>7.4379999999999997</v>
+      </c>
+      <c r="F25" s="23">
+        <v>7.7119999999999997</v>
+      </c>
+      <c r="G25" s="23">
+        <v>8.9049999999999994</v>
+      </c>
+      <c r="H25" s="23">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I25" s="23">
+        <v>7.782</v>
+      </c>
+      <c r="J25" s="23">
+        <v>8.8030000000000008</v>
+      </c>
+      <c r="K25" s="23">
+        <v>8.1289999999999996</v>
+      </c>
+      <c r="L25" s="23">
+        <v>8.6940000000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="23">
+        <v>8.4410000000000007</v>
+      </c>
+      <c r="E26" s="23">
+        <v>7.92</v>
+      </c>
+      <c r="F26" s="23">
+        <v>8.1639999999999997</v>
+      </c>
+      <c r="G26" s="23">
+        <v>9.0749999999999993</v>
+      </c>
+      <c r="H26" s="23">
+        <v>8.9429999999999996</v>
+      </c>
+      <c r="I26" s="23">
+        <v>7.6589999999999998</v>
+      </c>
+      <c r="J26" s="23">
+        <v>9.1419999999999995</v>
+      </c>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>2012</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="23">
+        <v>8.4540000000000006</v>
+      </c>
+      <c r="E27" s="23">
+        <v>7.633</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="H27" s="23">
+        <v>8.8710000000000004</v>
+      </c>
+      <c r="I27" s="23">
+        <v>8.6530000000000005</v>
+      </c>
+      <c r="J27" s="23">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="K27" s="23">
+        <v>8.5730000000000004</v>
+      </c>
+      <c r="L27" s="23">
+        <v>9.1050000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>2012</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="23">
+        <v>8.2010000000000005</v>
+      </c>
+      <c r="E28" s="23">
+        <v>6.5839999999999996</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23">
+        <v>8.4469999999999992</v>
+      </c>
+      <c r="H28" s="23">
+        <v>8.7479999999999993</v>
+      </c>
+      <c r="I28" s="23">
+        <v>8.4979999999999993</v>
+      </c>
+      <c r="J28" s="23">
+        <v>8.3330000000000002</v>
+      </c>
+      <c r="K28" s="23">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="L28" s="23">
+        <v>8.7159999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>2012</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="23">
+        <v>8.0519999999999996</v>
+      </c>
+      <c r="E29" s="23">
+        <v>6.8410000000000002</v>
+      </c>
+      <c r="F29" s="23">
+        <v>6.8559999999999999</v>
+      </c>
+      <c r="G29" s="23">
+        <v>8.7469999999999999</v>
+      </c>
+      <c r="H29" s="23">
+        <v>8.5120000000000005</v>
+      </c>
+      <c r="I29" s="23">
+        <v>8.2230000000000008</v>
+      </c>
+      <c r="J29" s="23">
+        <v>8.1679999999999993</v>
+      </c>
+      <c r="K29" s="23">
+        <v>7.9210000000000003</v>
+      </c>
+      <c r="L29" s="23">
+        <v>8.4979999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>2012</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="23">
+        <v>8.2170000000000005</v>
+      </c>
+      <c r="E30" s="23">
+        <v>7.4509999999999996</v>
+      </c>
+      <c r="F30" s="23">
+        <v>7.7430000000000003</v>
+      </c>
+      <c r="G30" s="23">
+        <v>8.8879999999999999</v>
+      </c>
+      <c r="H30" s="23">
+        <v>8.6829999999999998</v>
+      </c>
+      <c r="I30" s="23">
+        <v>7.83</v>
+      </c>
+      <c r="J30" s="23">
+        <v>8.7279999999999998</v>
+      </c>
+      <c r="K30" s="23">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="L30" s="23">
+        <v>8.6560000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>2012</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="23">
+        <v>8.4819999999999993</v>
+      </c>
+      <c r="E31" s="23">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="F31" s="23">
+        <v>8.0030000000000001</v>
+      </c>
+      <c r="G31" s="23">
+        <v>9.1289999999999996</v>
+      </c>
+      <c r="H31" s="23">
+        <v>8.9629999999999992</v>
+      </c>
+      <c r="I31" s="23">
+        <v>7.6890000000000001</v>
+      </c>
+      <c r="J31" s="23">
+        <v>9.1379999999999999</v>
+      </c>
+      <c r="K31" s="23">
+        <v>8.9689999999999994</v>
+      </c>
+      <c r="L31" s="23">
+        <v>9.1329999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>2013</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="23">
+        <v>8.4260000000000002</v>
+      </c>
+      <c r="E32" s="23">
+        <v>7.5759999999999996</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23">
+        <v>8.5850000000000009</v>
+      </c>
+      <c r="H32" s="23">
+        <v>8.7870000000000008</v>
+      </c>
+      <c r="I32" s="23">
+        <v>8.7669999999999995</v>
+      </c>
+      <c r="J32" s="23">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>2013</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="23">
+        <v>7.9710000000000001</v>
+      </c>
+      <c r="E33" s="23">
+        <v>6.7670000000000003</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23">
+        <v>8.4760000000000009</v>
+      </c>
+      <c r="H33" s="23">
+        <v>8.8019999999999996</v>
+      </c>
+      <c r="I33" s="23">
+        <v>8.5090000000000003</v>
+      </c>
+      <c r="J33" s="23">
+        <v>8.18</v>
+      </c>
+      <c r="K33" s="23">
+        <v>7.9210000000000003</v>
+      </c>
+      <c r="L33" s="23">
+        <v>8.6549999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>2013</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="23">
+        <v>7.8929999999999998</v>
+      </c>
+      <c r="E34" s="23">
+        <v>7.0469999999999997</v>
+      </c>
+      <c r="F34" s="23">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="G34" s="23">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="H34" s="23">
+        <v>8.5239999999999991</v>
+      </c>
+      <c r="I34" s="23">
+        <v>8.2379999999999995</v>
+      </c>
+      <c r="J34" s="23">
+        <v>8.0180000000000007</v>
+      </c>
+      <c r="K34" s="23">
+        <v>7.9690000000000003</v>
+      </c>
+      <c r="L34" s="23">
+        <v>8.4320000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>2013</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="23">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="E35" s="23">
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="F35" s="23">
+        <v>7.367</v>
+      </c>
+      <c r="G35" s="23">
+        <v>8.9009999999999998</v>
+      </c>
+      <c r="H35" s="23">
+        <v>8.6259999999999994</v>
+      </c>
+      <c r="I35" s="23">
+        <v>7.7750000000000004</v>
+      </c>
+      <c r="J35" s="23">
+        <v>8.5429999999999993</v>
+      </c>
+      <c r="K35" s="23">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="L35" s="23">
+        <v>8.5830000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>2013</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="23">
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="E36" s="23">
+        <v>8.173</v>
+      </c>
+      <c r="F36" s="23">
+        <v>7.6890000000000001</v>
+      </c>
+      <c r="G36" s="23">
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="H36" s="23">
+        <v>8.9870000000000001</v>
+      </c>
+      <c r="I36" s="23">
+        <v>7.6150000000000002</v>
+      </c>
+      <c r="J36" s="23">
+        <v>8.9550000000000001</v>
+      </c>
+      <c r="K36" s="23">
+        <v>8.8019999999999996</v>
+      </c>
+      <c r="L36" s="23">
+        <v>9.1120000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>2014</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="23">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E37" s="23">
+        <v>7.5789999999999997</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23">
+        <v>8.6489999999999991</v>
+      </c>
+      <c r="H37" s="23">
+        <v>8.6820000000000004</v>
+      </c>
+      <c r="I37" s="23">
+        <v>8.5839999999999996</v>
+      </c>
+      <c r="J37" s="23">
+        <v>8.5719999999999992</v>
+      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>2014</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="23">
+        <v>7.907</v>
+      </c>
+      <c r="E38" s="23">
+        <v>6.68</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H38" s="23">
+        <v>8.7210000000000001</v>
+      </c>
+      <c r="I38" s="23">
+        <v>8.3320000000000007</v>
+      </c>
+      <c r="J38" s="23">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="K38" s="23">
+        <v>7.8840000000000003</v>
+      </c>
+      <c r="L38" s="23">
+        <v>8.5559999999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>2014</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="23">
+        <v>7.8730000000000002</v>
+      </c>
+      <c r="E39" s="23">
+        <v>7.0069999999999997</v>
+      </c>
+      <c r="F39" s="23">
+        <v>6.7809999999999997</v>
+      </c>
+      <c r="G39" s="23">
+        <v>8.8610000000000007</v>
+      </c>
+      <c r="H39" s="23">
+        <v>8.5079999999999991</v>
+      </c>
+      <c r="I39" s="23">
+        <v>8.1440000000000001</v>
+      </c>
+      <c r="J39" s="23">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="K39" s="23">
+        <v>7.8289999999999997</v>
+      </c>
+      <c r="L39" s="23">
+        <v>8.4109999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>2014</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="23">
+        <v>7.97</v>
+      </c>
+      <c r="E40" s="23">
+        <v>7.4210000000000003</v>
+      </c>
+      <c r="F40" s="23">
+        <v>7.234</v>
+      </c>
+      <c r="G40" s="23">
+        <v>8.9</v>
+      </c>
+      <c r="H40" s="23">
+        <v>8.6259999999999994</v>
+      </c>
+      <c r="I40" s="23">
+        <v>7.66</v>
+      </c>
+      <c r="J40" s="23">
+        <v>8.4969999999999999</v>
+      </c>
+      <c r="K40" s="23">
+        <v>8.0429999999999993</v>
+      </c>
+      <c r="L40" s="23">
+        <v>8.6050000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>2014</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="23">
+        <v>8.3989999999999991</v>
+      </c>
+      <c r="E41" s="23">
+        <v>8.1620000000000008</v>
+      </c>
+      <c r="F41" s="23">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="G41" s="23">
+        <v>9.1969999999999992</v>
+      </c>
+      <c r="H41" s="23">
+        <v>8.9870000000000001</v>
+      </c>
+      <c r="I41" s="23">
+        <v>7.577</v>
+      </c>
+      <c r="J41" s="23">
+        <v>8.9329999999999998</v>
+      </c>
+      <c r="K41" s="23">
+        <v>8.9169999999999998</v>
+      </c>
+      <c r="L41" s="23">
+        <v>9.1769999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>2015</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="23">
+        <v>8.4819999999999993</v>
+      </c>
+      <c r="E42" s="23">
+        <v>7.3819999999999997</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23">
+        <v>8.4209999999999994</v>
+      </c>
+      <c r="H42" s="23">
+        <v>8.8030000000000008</v>
+      </c>
+      <c r="I42" s="23">
+        <v>8.64</v>
+      </c>
+      <c r="J42" s="23">
+        <v>8.7059999999999995</v>
+      </c>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>2015</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="23">
+        <v>7.907</v>
+      </c>
+      <c r="E43" s="23">
+        <v>6.7729999999999997</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23">
+        <v>8.5389999999999997</v>
+      </c>
+      <c r="H43" s="23">
+        <v>8.641</v>
+      </c>
+      <c r="I43" s="23">
+        <v>8.3780000000000001</v>
+      </c>
+      <c r="J43" s="23">
+        <v>8.1110000000000007</v>
+      </c>
+      <c r="K43" s="23">
+        <v>7.9489999999999998</v>
+      </c>
+      <c r="L43" s="23">
+        <v>8.702</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>2015</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="23">
+        <v>7.7839999999999998</v>
+      </c>
+      <c r="E44" s="23">
+        <v>7.02</v>
+      </c>
+      <c r="F44" s="23">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="G44" s="23">
+        <v>8.8480000000000008</v>
+      </c>
+      <c r="H44" s="23">
+        <v>8.4529999999999994</v>
+      </c>
+      <c r="I44" s="23">
+        <v>8.2569999999999997</v>
+      </c>
+      <c r="J44" s="23">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="K44" s="23">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="L44" s="23">
+        <v>8.4529999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
+        <v>2015</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="23">
+        <v>7.8470000000000004</v>
+      </c>
+      <c r="E45" s="23">
+        <v>7.5650000000000004</v>
+      </c>
+      <c r="F45" s="23">
+        <v>7.1639999999999997</v>
+      </c>
+      <c r="G45" s="23">
+        <v>8.9239999999999995</v>
+      </c>
+      <c r="H45" s="23">
+        <v>8.4770000000000003</v>
+      </c>
+      <c r="I45" s="23">
+        <v>7.718</v>
+      </c>
+      <c r="J45" s="23">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="K45" s="23">
+        <v>8.0939999999999994</v>
+      </c>
+      <c r="L45" s="23">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>2015</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="23">
+        <v>8.3759999999999994</v>
+      </c>
+      <c r="E46" s="23">
+        <v>8.1210000000000004</v>
+      </c>
+      <c r="F46" s="23">
+        <v>7.86</v>
+      </c>
+      <c r="G46" s="23">
+        <v>9.2219999999999995</v>
+      </c>
+      <c r="H46" s="23">
+        <v>8.702</v>
+      </c>
+      <c r="I46" s="23">
+        <v>7.5730000000000004</v>
+      </c>
+      <c r="J46" s="23">
+        <v>8.9120000000000008</v>
+      </c>
+      <c r="K46" s="23">
+        <v>8.9</v>
+      </c>
+      <c r="L46" s="23">
+        <v>9.2110000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="23">
+        <v>8.5120000000000005</v>
+      </c>
+      <c r="E47" s="23">
+        <v>8.0380000000000003</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23">
+        <v>8.7029999999999994</v>
+      </c>
+      <c r="H47" s="23">
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="I47" s="23">
+        <v>8.6890000000000001</v>
+      </c>
+      <c r="J47" s="23">
+        <v>8.7880000000000003</v>
+      </c>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="23">
+        <v>8.0169999999999995</v>
+      </c>
+      <c r="E48" s="23">
+        <v>6.84</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23">
+        <v>8.5990000000000002</v>
+      </c>
+      <c r="H48" s="23">
+        <v>8.6440000000000001</v>
+      </c>
+      <c r="I48" s="23">
+        <v>8.4529999999999994</v>
+      </c>
+      <c r="J48" s="23">
+        <v>8.2140000000000004</v>
+      </c>
+      <c r="K48" s="23">
+        <v>8.0980000000000008</v>
+      </c>
+      <c r="L48" s="23">
+        <v>8.7050000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="23">
+        <v>7.774</v>
+      </c>
+      <c r="E49" s="23">
+        <v>6.8369999999999997</v>
+      </c>
+      <c r="F49" s="23">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="G49" s="23">
+        <v>8.923</v>
+      </c>
+      <c r="H49" s="23">
+        <v>8.4269999999999996</v>
+      </c>
+      <c r="I49" s="23">
+        <v>8.1180000000000003</v>
+      </c>
+      <c r="J49" s="23">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="K49" s="23">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="L49" s="23">
+        <v>8.452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="23">
+        <v>7.851</v>
+      </c>
+      <c r="E50" s="23">
+        <v>7.32</v>
+      </c>
+      <c r="F50" s="23">
+        <v>7.274</v>
+      </c>
+      <c r="G50" s="23">
+        <v>8.9649999999999999</v>
+      </c>
+      <c r="H50" s="23">
+        <v>8.5060000000000002</v>
+      </c>
+      <c r="I50" s="23">
+        <v>7.6470000000000002</v>
+      </c>
+      <c r="J50" s="23">
+        <v>8.4540000000000006</v>
+      </c>
+      <c r="K50" s="23">
+        <v>8.0370000000000008</v>
+      </c>
+      <c r="L50" s="23">
+        <v>8.5489999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="23">
+        <v>8.35</v>
+      </c>
+      <c r="E51" s="23">
+        <v>7.9889999999999999</v>
+      </c>
+      <c r="F51" s="23">
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="G51" s="23">
+        <v>9.2319999999999993</v>
+      </c>
+      <c r="H51" s="23">
+        <v>8.8049999999999997</v>
+      </c>
+      <c r="I51" s="23">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="J51" s="23">
+        <v>8.8960000000000008</v>
+      </c>
+      <c r="K51" s="23">
+        <v>8.9380000000000006</v>
+      </c>
+      <c r="L51" s="23">
+        <v>9.077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="23">
+        <v>8.3301459074356856</v>
+      </c>
+      <c r="E52" s="23">
+        <v>7.6479931331177884</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23">
+        <v>8.6442631626053856</v>
+      </c>
+      <c r="H52" s="23">
+        <v>8.8467529158283806</v>
+      </c>
+      <c r="I52" s="23">
+        <v>8.9244650987817575</v>
+      </c>
+      <c r="J52" s="23">
+        <v>8.5068745209308254</v>
+      </c>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="23">
+        <v>7.9322260006410943</v>
+      </c>
+      <c r="E53" s="23">
+        <v>6.7146332807254172</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23">
+        <v>8.6113962475447057</v>
+      </c>
+      <c r="H53" s="23">
+        <v>8.7618375723534871</v>
+      </c>
+      <c r="I53" s="23">
+        <v>8.5659740365113777</v>
+      </c>
+      <c r="J53" s="23">
+        <v>8.3435937525275747</v>
+      </c>
+      <c r="K53" s="23">
+        <v>8.0400087889946761</v>
+      </c>
+      <c r="L53" s="23">
+        <v>8.741137520140164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="23">
+        <v>7.7929427899023613</v>
+      </c>
+      <c r="E54" s="23">
+        <v>6.8327969094905487</v>
+      </c>
+      <c r="F54" s="23">
+        <v>7.0915134533908946</v>
+      </c>
+      <c r="G54" s="23">
+        <v>8.829501885743225</v>
+      </c>
+      <c r="H54" s="23">
+        <v>8.4931385368911307</v>
+      </c>
+      <c r="I54" s="23">
+        <v>8.1731242295408446</v>
+      </c>
+      <c r="J54" s="23">
+        <v>7.9962936450755775</v>
+      </c>
+      <c r="K54" s="23">
+        <v>7.8359566792233615</v>
+      </c>
+      <c r="L54" s="23">
+        <v>8.4304940779390325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="23">
+        <v>7.903831374861694</v>
+      </c>
+      <c r="E55" s="23">
+        <v>7.3331310918850319</v>
+      </c>
+      <c r="F55" s="23">
+        <v>7.2883714826564354</v>
+      </c>
+      <c r="G55" s="23">
+        <v>8.9990549613232567</v>
+      </c>
+      <c r="H55" s="23">
+        <v>8.5968011473333732</v>
+      </c>
+      <c r="I55" s="23">
+        <v>7.7163985438511826</v>
+      </c>
+      <c r="J55" s="23">
+        <v>8.4778999294533257</v>
+      </c>
+      <c r="K55" s="23">
+        <v>8.047476117350941</v>
+      </c>
+      <c r="L55" s="23">
+        <v>8.5826960365655012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="23">
+        <v>8.3490355292165255</v>
+      </c>
+      <c r="E56" s="23">
+        <v>8.0300647199410875</v>
+      </c>
+      <c r="F56" s="23">
+        <v>8.047990050699724</v>
+      </c>
+      <c r="G56" s="23">
+        <v>9.2251387682673567</v>
+      </c>
+      <c r="H56" s="23">
+        <v>8.8971871191595717</v>
+      </c>
+      <c r="I56" s="23">
+        <v>7.5686828648200972</v>
+      </c>
+      <c r="J56" s="23">
+        <v>8.8898776421119852</v>
+      </c>
+      <c r="K56" s="23">
+        <v>9.1235562927648992</v>
+      </c>
+      <c r="L56" s="23">
+        <v>9.2562237565414396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="23">
+        <v>7.9697509288927604</v>
+      </c>
+      <c r="E58" s="23">
+        <v>6.928686196683608</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23">
+        <v>8.6466344732734086</v>
+      </c>
+      <c r="H58" s="23">
+        <v>8.7113693871104498</v>
+      </c>
+      <c r="I58" s="23">
+        <v>8.556658582950897</v>
+      </c>
+      <c r="J58" s="23">
+        <v>8.4215432259190699</v>
+      </c>
+      <c r="K58" s="23">
+        <v>8.1708236195004265</v>
+      </c>
+      <c r="L58" s="23">
+        <v>8.6338671354748922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="23">
+        <v>7.7694532369999987</v>
+      </c>
+      <c r="E59" s="23">
+        <v>6.8028632380128196</v>
+      </c>
+      <c r="F59" s="23">
+        <v>7.189141437816275</v>
+      </c>
+      <c r="G59" s="23">
+        <v>8.8674727864938738</v>
+      </c>
+      <c r="H59" s="23">
+        <v>8.5081550844313831</v>
+      </c>
+      <c r="I59" s="23">
+        <v>8.1815099940462712</v>
+      </c>
+      <c r="J59" s="23">
+        <v>8.0034718650546797</v>
+      </c>
+      <c r="K59" s="23">
+        <v>7.8968511069370404</v>
+      </c>
+      <c r="L59" s="23">
+        <v>8.4619552296772476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="23">
+        <v>7.9184166273289982</v>
+      </c>
+      <c r="E60" s="23">
+        <v>7.3423058990915955</v>
+      </c>
+      <c r="F60" s="23">
+        <v>7.3161024541898252</v>
+      </c>
+      <c r="G60" s="23">
+        <v>8.9715309909634708</v>
+      </c>
+      <c r="H60" s="23">
+        <v>8.5878609206862819</v>
+      </c>
+      <c r="I60" s="23">
+        <v>7.6491211039327487</v>
+      </c>
+      <c r="J60" s="23">
+        <v>8.454169412866424</v>
+      </c>
+      <c r="K60" s="23">
+        <v>8.171747241500988</v>
+      </c>
+      <c r="L60" s="23">
+        <v>8.5945890569168224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="23">
+        <v>8.348481189328318</v>
+      </c>
+      <c r="E61" s="23">
+        <v>8.1368051692918808</v>
+      </c>
+      <c r="F61" s="23">
+        <v>7.9595728405832604</v>
+      </c>
+      <c r="G61" s="23">
+        <v>9.24396070441645</v>
+      </c>
+      <c r="H61" s="23">
+        <v>8.8494214350110152</v>
+      </c>
+      <c r="I61" s="23">
+        <v>7.6128842974834754</v>
+      </c>
+      <c r="J61" s="23">
+        <v>8.9315593639059454</v>
+      </c>
+      <c r="K61" s="23">
+        <v>9.0947897118487191</v>
+      </c>
+      <c r="L61" s="23">
+        <v>9.3485175492514312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="23">
+        <v>8.4006647740380433</v>
+      </c>
+      <c r="E62" s="23">
+        <v>7.7526587137661309</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23">
+        <v>8.8591483818543253</v>
+      </c>
+      <c r="H62" s="23">
+        <v>8.7239289503309401</v>
+      </c>
+      <c r="I62" s="23">
+        <v>8.7937042920993527</v>
+      </c>
+      <c r="J62" s="23">
+        <v>9.0430477528754398</v>
+      </c>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="23">
+        <v>8.0443383867405167</v>
+      </c>
+      <c r="E63" s="23">
+        <v>6.8628265542889562</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23">
+        <v>8.4222783631126301</v>
+      </c>
+      <c r="H63" s="23">
+        <v>8.6968525925368692</v>
+      </c>
+      <c r="I63" s="23">
+        <v>8.6203351428914363</v>
+      </c>
+      <c r="J63" s="23">
+        <v>8.3831878475671733</v>
+      </c>
+      <c r="K63" s="23">
+        <v>7.9732563185488612</v>
+      </c>
+      <c r="L63" s="23">
+        <v>8.6276137004194489</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="23">
+        <v>7.8214138249469247</v>
+      </c>
+      <c r="E64" s="23">
+        <v>6.8788073861512906</v>
+      </c>
+      <c r="F64" s="23">
+        <v>7.2521687007372115</v>
+      </c>
+      <c r="G64" s="23">
+        <v>8.8743529251601849</v>
+      </c>
+      <c r="H64" s="23">
+        <v>8.5214802032728247</v>
+      </c>
+      <c r="I64" s="23">
+        <v>8.1668328688665515</v>
+      </c>
+      <c r="J64" s="23">
+        <v>8.0478349172666377</v>
+      </c>
+      <c r="K64" s="23">
+        <v>7.8541632670329316</v>
+      </c>
+      <c r="L64" s="23">
+        <v>8.5427805126885481</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="23">
+        <v>7.9429855794481217</v>
+      </c>
+      <c r="E65" s="23">
+        <v>7.371383399540778</v>
+      </c>
+      <c r="F65" s="23">
+        <v>7.5608056355684647</v>
+      </c>
+      <c r="G65" s="23">
+        <v>8.9465359471205712</v>
+      </c>
+      <c r="H65" s="23">
+        <v>8.6137296526802754</v>
+      </c>
+      <c r="I65" s="23">
+        <v>7.7293600947806063</v>
+      </c>
+      <c r="J65" s="23">
+        <v>8.5321787251402412</v>
+      </c>
+      <c r="K65" s="23">
+        <v>8.1252608809647242</v>
+      </c>
+      <c r="L65" s="23">
+        <v>8.6833506611391336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="23">
+        <v>8.4829173172843166</v>
+      </c>
+      <c r="E66" s="23">
+        <v>8.1274162996984938</v>
+      </c>
+      <c r="F66" s="23">
+        <v>8.0792567517342615</v>
+      </c>
+      <c r="G66" s="23">
+        <v>9.2635469781125508</v>
+      </c>
+      <c r="H66" s="23">
+        <v>8.9139842413701924</v>
+      </c>
+      <c r="I66" s="23">
+        <v>7.6168848512054819</v>
+      </c>
+      <c r="J66" s="23">
+        <v>8.952166809378074</v>
+      </c>
+      <c r="K66" s="23">
+        <v>9.0856244032741955</v>
+      </c>
+      <c r="L66" s="23">
+        <v>9.366547795832961</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="25">
+        <v>8.7264467448772898</v>
+      </c>
+      <c r="E67" s="25">
+        <v>8.3428808070761171</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25">
+        <v>8.7597341353384746</v>
+      </c>
+      <c r="H67" s="25">
+        <v>8.928071939379997</v>
+      </c>
+      <c r="I67" s="25">
+        <v>8.8712680611424961</v>
+      </c>
+      <c r="J67" s="25">
+        <v>9.038706568714673</v>
+      </c>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="25">
+        <v>8.0531134584666777</v>
+      </c>
+      <c r="E68" s="25">
+        <v>7.0463574122083763</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25">
+        <v>8.4027061899048867</v>
+      </c>
+      <c r="H68" s="25">
+        <v>8.5494693894793024</v>
+      </c>
+      <c r="I68" s="25">
+        <v>8.5741953146896179</v>
+      </c>
+      <c r="J68" s="25">
+        <v>8.4194943398952216</v>
+      </c>
+      <c r="K68" s="25">
+        <v>8.1804963895330882</v>
+      </c>
+      <c r="L68" s="25">
+        <v>8.5785117444820926</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="25">
+        <v>7.9280702062009718</v>
+      </c>
+      <c r="E69" s="25">
+        <v>7.0288009060384891</v>
+      </c>
+      <c r="F69" s="25">
+        <v>7.4438483726396703</v>
+      </c>
+      <c r="G69" s="25">
+        <v>8.8444184409271571</v>
+      </c>
+      <c r="H69" s="25">
+        <v>8.5873168566090321</v>
+      </c>
+      <c r="I69" s="25">
+        <v>8.3596614561213691</v>
+      </c>
+      <c r="J69" s="25">
+        <v>8.122094887545904</v>
+      </c>
+      <c r="K69" s="25">
+        <v>7.984046402754795</v>
+      </c>
+      <c r="L69" s="25">
+        <v>8.5744857512552688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="25">
+        <v>7.9696816561271921</v>
+      </c>
+      <c r="E70" s="25">
+        <v>7.4045906400943933</v>
+      </c>
+      <c r="F70" s="25">
+        <v>7.668602353666329</v>
+      </c>
+      <c r="G70" s="25">
+        <v>8.9401861340971323</v>
+      </c>
+      <c r="H70" s="25">
+        <v>8.6498132598548647</v>
+      </c>
+      <c r="I70" s="25">
+        <v>7.8077370040970875</v>
+      </c>
+      <c r="J70" s="25">
+        <v>8.4980618416631017</v>
+      </c>
+      <c r="K70" s="25">
+        <v>8.1040888827235555</v>
+      </c>
+      <c r="L70" s="25">
+        <v>8.6396953597745494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="25">
+        <v>8.4443779045352656</v>
+      </c>
+      <c r="E71" s="25">
+        <v>8.1983265934802354</v>
+      </c>
+      <c r="F71" s="25">
+        <v>8.0921263134253412</v>
+      </c>
+      <c r="G71" s="25">
+        <v>9.1732909233681479</v>
+      </c>
+      <c r="H71" s="25">
+        <v>8.9577561791447771</v>
+      </c>
+      <c r="I71" s="25">
+        <v>7.7301930469903413</v>
+      </c>
+      <c r="J71" s="25">
+        <v>8.9895695782324339</v>
+      </c>
+      <c r="K71" s="25">
+        <v>9.1262108727171842</v>
+      </c>
+      <c r="L71" s="25">
+        <v>9.2538265569941132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="25">
+        <v>8.3102482044680936</v>
+      </c>
+      <c r="E72" s="25">
+        <v>8.1499396072771972</v>
+      </c>
+      <c r="F72" s="23"/>
+      <c r="G72" s="25">
+        <v>8.8915772743608592</v>
+      </c>
+      <c r="H72" s="25">
+        <v>8.8392909023861659</v>
+      </c>
+      <c r="I72" s="25">
+        <v>8.8456044927090094</v>
+      </c>
+      <c r="J72" s="25">
+        <v>8.8023092539717407</v>
+      </c>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="25">
+        <v>7.6905923985043376</v>
+      </c>
+      <c r="E73" s="25">
+        <v>7.272405875213324</v>
+      </c>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25">
+        <v>8.4975692154632476</v>
+      </c>
+      <c r="H73" s="25">
+        <v>8.5830065258749499</v>
+      </c>
+      <c r="I73" s="25">
+        <v>8.5786983067931057</v>
+      </c>
+      <c r="J73" s="25">
+        <v>8.380260948216895</v>
+      </c>
+      <c r="K73" s="25">
+        <v>7.9810584274739966</v>
+      </c>
+      <c r="L73" s="25">
+        <v>8.6924218110596296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="25">
+        <v>7.7536602160827144</v>
+      </c>
+      <c r="E74" s="25">
+        <v>7.1496540874671135</v>
+      </c>
+      <c r="F74" s="25">
+        <v>7.311883344144654</v>
+      </c>
+      <c r="G74" s="25">
+        <v>8.9191262930047017</v>
+      </c>
+      <c r="H74" s="25">
+        <v>8.5776906378032685</v>
+      </c>
+      <c r="I74" s="25">
+        <v>8.2790900547806441</v>
+      </c>
+      <c r="J74" s="25">
+        <v>8.0914870585965843</v>
+      </c>
+      <c r="K74" s="25">
+        <v>7.9679305531181743</v>
+      </c>
+      <c r="L74" s="25">
+        <v>8.6184779786078014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="25">
+        <v>7.8207382704579516</v>
+      </c>
+      <c r="E75" s="25">
+        <v>7.5875204186756893</v>
+      </c>
+      <c r="F75" s="25">
+        <v>7.5291048982922648</v>
+      </c>
+      <c r="G75" s="25">
+        <v>8.9599644874980005</v>
+      </c>
+      <c r="H75" s="25">
+        <v>8.5361375723869646</v>
+      </c>
+      <c r="I75" s="25">
+        <v>7.7740633492782738</v>
+      </c>
+      <c r="J75" s="25">
+        <v>8.508895743222892</v>
+      </c>
+      <c r="K75" s="25">
+        <v>8.1343579007797473</v>
+      </c>
+      <c r="L75" s="25">
+        <v>8.6199117778466903</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="25">
+        <v>8.2950254480078414</v>
+      </c>
+      <c r="E76" s="25">
+        <v>8.3672326923558114</v>
+      </c>
+      <c r="F76" s="25">
+        <v>8.0174467085170065</v>
+      </c>
+      <c r="G76" s="25">
+        <v>9.2712919335823596</v>
+      </c>
+      <c r="H76" s="25">
+        <v>8.9202566315797007</v>
+      </c>
+      <c r="I76" s="25">
+        <v>7.6854875043777975</v>
+      </c>
+      <c r="J76" s="25">
+        <v>8.9973356845133381</v>
+      </c>
+      <c r="K76" s="25">
+        <v>9.1716725264507915</v>
+      </c>
+      <c r="L76" s="25">
+        <v>9.2145261163275194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="25">
+        <v>7.77473658438758</v>
+      </c>
+      <c r="E77" s="25">
+        <v>7.4343369244182806</v>
+      </c>
+      <c r="F77" s="23"/>
+      <c r="G77" s="25">
+        <v>8.43648139987957</v>
+      </c>
+      <c r="H77" s="25">
+        <v>8.1384823010528393</v>
+      </c>
+      <c r="I77" s="25">
+        <v>8.4234797730717705</v>
+      </c>
+      <c r="J77" s="25">
+        <v>8.6184123024589709</v>
+      </c>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="25">
+        <v>7.744472177852276</v>
+      </c>
+      <c r="E78" s="25">
+        <v>7.0557372618948486</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25">
+        <v>8.3868470601607008</v>
+      </c>
+      <c r="H78" s="25">
+        <v>8.4341520148138063</v>
+      </c>
+      <c r="I78" s="25">
+        <v>8.3198204878945337</v>
+      </c>
+      <c r="J78" s="25">
+        <v>8.2780065368848348</v>
+      </c>
+      <c r="K78" s="25">
+        <v>7.967162909185209</v>
+      </c>
+      <c r="L78" s="25">
+        <v>8.611083107602246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="25">
+        <v>7.8411537379064971</v>
+      </c>
+      <c r="E79" s="25">
+        <v>7.1534152468528607</v>
+      </c>
+      <c r="F79" s="25">
+        <v>7.348407715022482</v>
+      </c>
+      <c r="G79" s="25">
+        <v>8.9561465592294134</v>
+      </c>
+      <c r="H79" s="25">
+        <v>8.5356707545674748</v>
+      </c>
+      <c r="I79" s="25">
+        <v>8.1558245084264875</v>
+      </c>
+      <c r="J79" s="25">
+        <v>8.1183733351346969</v>
+      </c>
+      <c r="K79" s="25">
+        <v>7.8021624052605052</v>
+      </c>
+      <c r="L79" s="25">
+        <v>8.5638109404745002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="25">
+        <v>7.8851847737642284</v>
+      </c>
+      <c r="E80" s="25">
+        <v>7.5663785144062503</v>
+      </c>
+      <c r="F80" s="25">
+        <v>7.6251469451548131</v>
+      </c>
+      <c r="G80" s="25">
+        <v>8.9062268325921501</v>
+      </c>
+      <c r="H80" s="25">
+        <v>8.5434676522549466</v>
+      </c>
+      <c r="I80" s="25">
+        <v>7.6665827004635609</v>
+      </c>
+      <c r="J80" s="25">
+        <v>8.4691742313555878</v>
+      </c>
+      <c r="K80" s="25">
+        <v>8.0606861974137711</v>
+      </c>
+      <c r="L80" s="25">
+        <v>8.6167314477607171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="25">
+        <v>8.4525134053553987</v>
+      </c>
+      <c r="E81" s="25">
+        <v>8.3049308561342716</v>
+      </c>
+      <c r="F81" s="25">
+        <v>8.1172886905897546</v>
+      </c>
+      <c r="G81" s="25">
+        <v>9.3192911253760062</v>
+      </c>
+      <c r="H81" s="25">
+        <v>8.9693453629598068</v>
+      </c>
+      <c r="I81" s="25">
+        <v>7.6456873646273511</v>
+      </c>
+      <c r="J81" s="25">
+        <v>8.9691815645313966</v>
+      </c>
+      <c r="K81" s="25">
+        <v>9.1529376205340061</v>
+      </c>
+      <c r="L81" s="25">
+        <v>9.3633973208218269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/Zufriedenheit-cleaned.xlsx
+++ b/assets/Zufriedenheit-cleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhgraubuenden-my.sharepoint.com/personal/nyffeltamara_fhgr_ch/Documents/PY-Skriptesammlung/FHGR_Data_Visualization/02_DaDe_Zufriedenheits_Dashboard/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55d6cdc912bf3ef8/Dokumente/GitHub/Dashboard_Design/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="8_{EABC2878-4134-421C-8096-C3030AEA7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EADA036-C094-4BF6-BCEE-68F7B396EAD0}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="8_{EABC2878-4134-421C-8096-C3030AEA7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA167090-D7D5-4407-9296-83086506F7FA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{807A4729-B974-43DF-9F85-699DD16C51D8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="24">
   <si>
     <t>Jahr</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>65 Jahre +</t>
+  </si>
+  <si>
+    <t>Zusammenleben</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -259,10 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3172,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5028D925-7BF8-434F-99D4-BBA3B585A086}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E113" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3202,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -11161,7 +11163,7 @@
       <c r="A3" s="16">
         <v>2007</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -11200,7 +11202,7 @@
       <c r="A4" s="16">
         <v>2007</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -11241,7 +11243,7 @@
       <c r="A5" s="16">
         <v>2007</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="16" t="s">
